--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_24_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_24_25.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>562016.7583090153</v>
+        <v>585876.2939934154</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12055414.43615332</v>
+        <v>12101176.53581382</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>17465467.27538588</v>
+        <v>17457657.16194741</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5242747.263761856</v>
+        <v>5237345.346314599</v>
       </c>
     </row>
     <row r="11">
@@ -8687,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>71.01666190517604</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K11" t="n">
-        <v>55.18453849409252</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L11" t="n">
-        <v>31.18679282540216</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M11" t="n">
-        <v>2.711985318299043</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>11.67155355933255</v>
+        <v>9.069265482343781</v>
       </c>
       <c r="P11" t="n">
-        <v>44.81089674908156</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q11" t="n">
-        <v>82.31045725961144</v>
+        <v>80.64258426171736</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8766,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>61.30496353706819</v>
+        <v>60.52422152698378</v>
       </c>
       <c r="K12" t="n">
-        <v>25.83567979686363</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,10 +8786,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1.521824556688586</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>51.44073013616614</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8848,22 +8850,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>61.45182702367595</v>
+        <v>60.64691470913344</v>
       </c>
       <c r="L13" t="n">
-        <v>48.42930499988151</v>
+        <v>47.39929435887774</v>
       </c>
       <c r="M13" t="n">
-        <v>47.77071686894328</v>
+        <v>46.68471506615327</v>
       </c>
       <c r="N13" t="n">
-        <v>38.69794114010909</v>
+        <v>37.63776203285606</v>
       </c>
       <c r="O13" t="n">
-        <v>56.26208372012361</v>
+        <v>55.28283671961447</v>
       </c>
       <c r="P13" t="n">
-        <v>67.39644849532776</v>
+        <v>66.55853351624533</v>
       </c>
       <c r="Q13" t="n">
         <v>65.34295837775146</v>
@@ -8924,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>71.01666190517604</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K14" t="n">
-        <v>55.18453849409252</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L14" t="n">
-        <v>31.18679282540216</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M14" t="n">
-        <v>2.711985318299043</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>11.67155355933255</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P14" t="n">
-        <v>44.81089674908156</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q14" t="n">
-        <v>82.31045725961144</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9003,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>61.30496353706819</v>
+        <v>60.52422152698378</v>
       </c>
       <c r="K15" t="n">
-        <v>25.83567979686363</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,10 +9023,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>1.521824556688586</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>51.44073013616614</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9085,22 +9087,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
-        <v>61.45182702367595</v>
+        <v>60.64691470913344</v>
       </c>
       <c r="L16" t="n">
-        <v>48.42930499988151</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M16" t="n">
-        <v>47.77071686894328</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N16" t="n">
-        <v>38.69794114010909</v>
+        <v>37.63776203285606</v>
       </c>
       <c r="O16" t="n">
-        <v>56.26208372012361</v>
+        <v>55.28283671961447</v>
       </c>
       <c r="P16" t="n">
-        <v>67.39644849532776</v>
+        <v>66.55853351624533</v>
       </c>
       <c r="Q16" t="n">
         <v>65.34295837775146</v>
@@ -9161,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>71.01666190517604</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K17" t="n">
-        <v>55.18453849409252</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L17" t="n">
-        <v>31.18679282540216</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M17" t="n">
-        <v>2.711985318299043</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>11.67155355933255</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P17" t="n">
-        <v>44.81089674908156</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q17" t="n">
-        <v>82.31045725961144</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9240,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>61.30496353706819</v>
+        <v>60.52422152698378</v>
       </c>
       <c r="K18" t="n">
-        <v>25.83567979686363</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,10 +9260,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>1.521824556688586</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>51.44073013616614</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9322,22 +9324,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>61.45182702367595</v>
+        <v>60.64691470913344</v>
       </c>
       <c r="L19" t="n">
-        <v>48.42930499988151</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M19" t="n">
-        <v>47.77071686894328</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N19" t="n">
-        <v>38.69794114010909</v>
+        <v>37.63776203285606</v>
       </c>
       <c r="O19" t="n">
-        <v>56.26208372012361</v>
+        <v>55.28283671961447</v>
       </c>
       <c r="P19" t="n">
-        <v>67.39644849532776</v>
+        <v>66.55853351624533</v>
       </c>
       <c r="Q19" t="n">
         <v>65.34295837775146</v>
@@ -9398,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>71.01666190517604</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K20" t="n">
-        <v>55.18453849409252</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L20" t="n">
-        <v>31.18679282540216</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M20" t="n">
-        <v>2.711985318299043</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>11.67155355933255</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P20" t="n">
-        <v>44.81089674908156</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q20" t="n">
-        <v>82.31045725961144</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9477,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>61.30496353706819</v>
+        <v>60.52422152698378</v>
       </c>
       <c r="K21" t="n">
-        <v>25.83567979686363</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9495,10 +9497,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>1.521824556688586</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>51.44073013616614</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9559,22 +9561,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>61.45182702367595</v>
+        <v>60.64691470913344</v>
       </c>
       <c r="L22" t="n">
-        <v>48.42930499988151</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M22" t="n">
-        <v>47.77071686894328</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N22" t="n">
-        <v>38.69794114010909</v>
+        <v>37.63776203285606</v>
       </c>
       <c r="O22" t="n">
-        <v>56.26208372012361</v>
+        <v>55.28283671961447</v>
       </c>
       <c r="P22" t="n">
-        <v>67.39644849532776</v>
+        <v>66.55853351624533</v>
       </c>
       <c r="Q22" t="n">
         <v>65.34295837775146</v>
@@ -9635,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>71.01666190517604</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K23" t="n">
-        <v>55.18453849409252</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L23" t="n">
-        <v>31.18679282540216</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M23" t="n">
-        <v>2.711985318299043</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>11.67155355933255</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P23" t="n">
-        <v>44.81089674908156</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q23" t="n">
-        <v>82.31045725961144</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9714,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>61.30496353706819</v>
+        <v>60.52422152698378</v>
       </c>
       <c r="K24" t="n">
-        <v>25.83567979686363</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9732,10 +9734,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>1.521824556688586</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>51.44073013616614</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9796,22 +9798,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
-        <v>61.45182702367595</v>
+        <v>60.64691470913344</v>
       </c>
       <c r="L25" t="n">
-        <v>48.42930499988151</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M25" t="n">
-        <v>47.77071686894328</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N25" t="n">
-        <v>38.69794114010909</v>
+        <v>37.63776203285606</v>
       </c>
       <c r="O25" t="n">
-        <v>56.26208372012361</v>
+        <v>55.28283671961447</v>
       </c>
       <c r="P25" t="n">
-        <v>67.39644849532776</v>
+        <v>66.55853351624533</v>
       </c>
       <c r="Q25" t="n">
         <v>65.34295837775146</v>
@@ -9872,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>71.01666190517604</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K26" t="n">
-        <v>55.18453849409252</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L26" t="n">
-        <v>31.18679282540216</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M26" t="n">
-        <v>2.711985318299043</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>11.67155355933255</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P26" t="n">
-        <v>44.81089674908156</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q26" t="n">
-        <v>82.31045725961144</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9951,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>61.30496353706819</v>
+        <v>60.52422152698378</v>
       </c>
       <c r="K27" t="n">
-        <v>25.83567979686363</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9969,10 +9971,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>1.521824556688586</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>51.44073013616614</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10033,22 +10035,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>61.45182702367595</v>
+        <v>60.64691470913344</v>
       </c>
       <c r="L28" t="n">
-        <v>48.42930499988151</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M28" t="n">
-        <v>47.77071686894328</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N28" t="n">
-        <v>38.69794114010909</v>
+        <v>37.63776203285606</v>
       </c>
       <c r="O28" t="n">
-        <v>56.26208372012361</v>
+        <v>55.28283671961447</v>
       </c>
       <c r="P28" t="n">
-        <v>67.39644849532776</v>
+        <v>66.55853351624533</v>
       </c>
       <c r="Q28" t="n">
         <v>65.34295837775146</v>
@@ -10109,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>71.01666190517604</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K29" t="n">
-        <v>55.18453849409252</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L29" t="n">
-        <v>31.18679282540216</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M29" t="n">
-        <v>2.711985318299043</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>11.67155355933255</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P29" t="n">
-        <v>44.81089674908156</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q29" t="n">
-        <v>82.31045725961144</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10188,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>61.30496353706819</v>
+        <v>60.52422152698378</v>
       </c>
       <c r="K30" t="n">
-        <v>25.83567979686363</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10206,10 +10208,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>1.521824556688586</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>51.44073013616614</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10270,22 +10272,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>61.45182702367595</v>
+        <v>60.64691470913344</v>
       </c>
       <c r="L31" t="n">
-        <v>48.42930499988151</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M31" t="n">
-        <v>47.77071686894328</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N31" t="n">
-        <v>38.69794114010909</v>
+        <v>37.63776203285606</v>
       </c>
       <c r="O31" t="n">
-        <v>56.26208372012361</v>
+        <v>55.28283671961447</v>
       </c>
       <c r="P31" t="n">
-        <v>67.39644849532776</v>
+        <v>66.55853351624533</v>
       </c>
       <c r="Q31" t="n">
         <v>65.34295837775146</v>
@@ -10346,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>71.01666190517604</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K32" t="n">
-        <v>55.18453849409252</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L32" t="n">
-        <v>31.18679282540216</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M32" t="n">
-        <v>2.711985318299043</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>11.67155355933255</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P32" t="n">
-        <v>44.81089674908156</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q32" t="n">
-        <v>82.31045725961144</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10425,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>61.30496353706819</v>
+        <v>60.52422152698378</v>
       </c>
       <c r="K33" t="n">
-        <v>25.83567979686363</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10443,10 +10445,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>1.521824556688586</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>51.44073013616614</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10507,22 +10509,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>61.45182702367595</v>
+        <v>60.64691470913344</v>
       </c>
       <c r="L34" t="n">
-        <v>48.42930499988151</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M34" t="n">
-        <v>47.77071686894328</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N34" t="n">
-        <v>38.69794114010909</v>
+        <v>37.63776203285606</v>
       </c>
       <c r="O34" t="n">
-        <v>56.26208372012361</v>
+        <v>55.28283671961447</v>
       </c>
       <c r="P34" t="n">
-        <v>67.39644849532776</v>
+        <v>66.55853351624533</v>
       </c>
       <c r="Q34" t="n">
         <v>65.34295837775146</v>
@@ -10583,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>71.01666190517604</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K35" t="n">
-        <v>55.18453849409252</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L35" t="n">
-        <v>31.18679282540216</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M35" t="n">
-        <v>2.711985318299043</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>11.67155355933255</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P35" t="n">
-        <v>44.81089674908156</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q35" t="n">
-        <v>82.31045725961144</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10662,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>61.30496353706819</v>
+        <v>60.52422152698378</v>
       </c>
       <c r="K36" t="n">
-        <v>25.83567979686363</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10680,10 +10682,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>1.521824556688586</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>51.44073013616614</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10744,22 +10746,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
-        <v>61.45182702367595</v>
+        <v>60.64691470913344</v>
       </c>
       <c r="L37" t="n">
-        <v>48.42930499988151</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M37" t="n">
-        <v>47.77071686894328</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N37" t="n">
-        <v>38.69794114010909</v>
+        <v>37.63776203285606</v>
       </c>
       <c r="O37" t="n">
-        <v>56.26208372012361</v>
+        <v>55.28283671961447</v>
       </c>
       <c r="P37" t="n">
-        <v>67.39644849532776</v>
+        <v>66.55853351624533</v>
       </c>
       <c r="Q37" t="n">
         <v>65.34295837775146</v>
@@ -10820,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>71.01666190517604</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K38" t="n">
-        <v>55.18453849409252</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L38" t="n">
-        <v>31.18679282540216</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M38" t="n">
-        <v>2.711985318299043</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>11.67155355933255</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P38" t="n">
-        <v>44.81089674908156</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q38" t="n">
-        <v>82.31045725961144</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10899,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>61.30496353706819</v>
+        <v>60.52422152698378</v>
       </c>
       <c r="K39" t="n">
-        <v>25.83567979686363</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10917,10 +10919,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>1.521824556688586</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>51.44073013616614</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -10981,22 +10983,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>61.45182702367595</v>
+        <v>60.64691470913344</v>
       </c>
       <c r="L40" t="n">
-        <v>48.42930499988151</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M40" t="n">
-        <v>47.77071686894328</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N40" t="n">
-        <v>38.69794114010909</v>
+        <v>37.63776203285606</v>
       </c>
       <c r="O40" t="n">
-        <v>56.26208372012361</v>
+        <v>55.28283671961447</v>
       </c>
       <c r="P40" t="n">
-        <v>67.39644849532776</v>
+        <v>66.55853351624533</v>
       </c>
       <c r="Q40" t="n">
         <v>65.34295837775146</v>
@@ -11057,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>71.01666190517604</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K41" t="n">
-        <v>55.18453849409252</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L41" t="n">
-        <v>31.18679282540216</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M41" t="n">
-        <v>2.711985318299043</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>11.67155355933255</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P41" t="n">
-        <v>44.81089674908156</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q41" t="n">
-        <v>82.31045725961144</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11136,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>61.30496353706819</v>
+        <v>60.52422152698378</v>
       </c>
       <c r="K42" t="n">
-        <v>25.83567979686363</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11154,10 +11156,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>1.521824556688586</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>51.44073013616614</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11218,22 +11220,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>61.45182702367595</v>
+        <v>60.64691470913344</v>
       </c>
       <c r="L43" t="n">
-        <v>48.42930499988151</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M43" t="n">
-        <v>47.77071686894328</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N43" t="n">
-        <v>38.69794114010909</v>
+        <v>37.63776203285606</v>
       </c>
       <c r="O43" t="n">
-        <v>56.26208372012361</v>
+        <v>55.28283671961447</v>
       </c>
       <c r="P43" t="n">
-        <v>67.39644849532776</v>
+        <v>66.55853351624533</v>
       </c>
       <c r="Q43" t="n">
         <v>65.34295837775146</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>71.01666190517604</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K44" t="n">
-        <v>55.18453849409252</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L44" t="n">
-        <v>31.18679282540216</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M44" t="n">
-        <v>2.711985318299043</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>11.67155355933255</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P44" t="n">
-        <v>44.81089674908156</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q44" t="n">
-        <v>82.31045725961144</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>61.30496353706819</v>
+        <v>60.52422152698378</v>
       </c>
       <c r="K45" t="n">
-        <v>25.83567979686363</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11391,10 +11393,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>1.521824556688586</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>51.44073013616614</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11455,22 +11457,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>61.45182702367595</v>
+        <v>60.64691470913344</v>
       </c>
       <c r="L46" t="n">
-        <v>48.42930499988151</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M46" t="n">
-        <v>47.77071686894328</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N46" t="n">
-        <v>38.69794114010909</v>
+        <v>37.63776203285606</v>
       </c>
       <c r="O46" t="n">
-        <v>56.26208372012361</v>
+        <v>55.28283671961447</v>
       </c>
       <c r="P46" t="n">
-        <v>67.39644849532776</v>
+        <v>66.55853351624533</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -22796,7 +22798,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>14.3588981658848</v>
+        <v>14.43656122057276</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23033,7 +23035,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>14.25430980652214</v>
+        <v>14.25430980652213</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23270,13 +23272,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>414.0063503209612</v>
+        <v>413.9909054436208</v>
       </c>
       <c r="H11" t="n">
-        <v>326.1981767634345</v>
+        <v>326.0400019133721</v>
       </c>
       <c r="I11" t="n">
-        <v>160.4969222670197</v>
+        <v>159.9014836333536</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>68.43493585512847</v>
+        <v>67.46474657889402</v>
       </c>
       <c r="S11" t="n">
-        <v>179.4786463990094</v>
+        <v>179.1266962566148</v>
       </c>
       <c r="T11" t="n">
-        <v>217.4209146216355</v>
+        <v>217.3533046710778</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2419419323026</v>
+        <v>251.2407063421153</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23349,13 +23351,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.6498888639883</v>
+        <v>136.6416251260792</v>
       </c>
       <c r="H12" t="n">
-        <v>105.5364551361123</v>
+        <v>105.4566448252536</v>
       </c>
       <c r="I12" t="n">
-        <v>65.51513219836517</v>
+        <v>65.23061315193451</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23382,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>57.09203501320687</v>
+        <v>56.57895837355434</v>
       </c>
       <c r="S12" t="n">
-        <v>158.7993296687211</v>
+        <v>158.6458343615066</v>
       </c>
       <c r="T12" t="n">
-        <v>197.3689198922544</v>
+        <v>197.3356112293665</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8957486402365</v>
+        <v>225.8952049732688</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23428,16 +23430,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.4094646928755</v>
+        <v>167.4025366526095</v>
       </c>
       <c r="H13" t="n">
-        <v>157.0569784807081</v>
+        <v>156.9953819045248</v>
       </c>
       <c r="I13" t="n">
-        <v>137.9627429840806</v>
+        <v>137.7543979186262</v>
       </c>
       <c r="J13" t="n">
-        <v>52.24609325993366</v>
+        <v>51.75628081312638</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,19 +23460,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>37.468119754533</v>
+        <v>36.88799085553058</v>
       </c>
       <c r="R13" t="n">
-        <v>151.1463774137605</v>
+        <v>150.8348675305268</v>
       </c>
       <c r="S13" t="n">
-        <v>213.8823833649433</v>
+        <v>213.761646517762</v>
       </c>
       <c r="T13" t="n">
-        <v>225.4609358571529</v>
+        <v>225.4313342305617</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2873103747318</v>
+        <v>286.2869324816264</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23507,13 +23509,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>414.0063503209612</v>
+        <v>413.9909054436208</v>
       </c>
       <c r="H14" t="n">
-        <v>326.1981767634345</v>
+        <v>326.0400019133721</v>
       </c>
       <c r="I14" t="n">
-        <v>160.4969222670197</v>
+        <v>159.9014836333536</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,16 +23542,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>68.43493585512847</v>
+        <v>67.46474657889404</v>
       </c>
       <c r="S14" t="n">
-        <v>179.4786463990094</v>
+        <v>179.1266962566148</v>
       </c>
       <c r="T14" t="n">
-        <v>217.4209146216355</v>
+        <v>217.3533046710778</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2419419323026</v>
+        <v>251.2407063421153</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23586,13 +23588,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.6498888639883</v>
+        <v>136.6416251260792</v>
       </c>
       <c r="H15" t="n">
-        <v>105.5364551361123</v>
+        <v>105.4566448252536</v>
       </c>
       <c r="I15" t="n">
-        <v>65.51513219836517</v>
+        <v>65.23061315193451</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>57.09203501320687</v>
+        <v>56.57895837355435</v>
       </c>
       <c r="S15" t="n">
-        <v>158.7993296687211</v>
+        <v>158.6458343615066</v>
       </c>
       <c r="T15" t="n">
-        <v>197.3689198922544</v>
+        <v>197.3356112293665</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8957486402365</v>
+        <v>225.8952049732688</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23665,16 +23667,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.4094646928755</v>
+        <v>167.4025366526095</v>
       </c>
       <c r="H16" t="n">
-        <v>157.0569784807081</v>
+        <v>156.9953819045248</v>
       </c>
       <c r="I16" t="n">
-        <v>137.9627429840806</v>
+        <v>137.7543979186262</v>
       </c>
       <c r="J16" t="n">
-        <v>52.24609325993366</v>
+        <v>51.75628081312638</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,19 +23697,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>37.468119754533</v>
+        <v>36.88799085553058</v>
       </c>
       <c r="R16" t="n">
-        <v>151.1463774137605</v>
+        <v>150.8348675305268</v>
       </c>
       <c r="S16" t="n">
-        <v>213.8823833649433</v>
+        <v>213.761646517762</v>
       </c>
       <c r="T16" t="n">
-        <v>225.4609358571529</v>
+        <v>225.4313342305617</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2873103747318</v>
+        <v>286.2869324816264</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23744,13 +23746,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>414.0063503209612</v>
+        <v>413.9909054436208</v>
       </c>
       <c r="H17" t="n">
-        <v>326.1981767634345</v>
+        <v>326.0400019133721</v>
       </c>
       <c r="I17" t="n">
-        <v>160.4969222670197</v>
+        <v>159.9014836333536</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,16 +23779,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>68.43493585512847</v>
+        <v>67.46474657889404</v>
       </c>
       <c r="S17" t="n">
-        <v>179.4786463990094</v>
+        <v>179.1266962566148</v>
       </c>
       <c r="T17" t="n">
-        <v>217.4209146216355</v>
+        <v>217.3533046710778</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2419419323026</v>
+        <v>251.2407063421153</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23823,13 +23825,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.6498888639883</v>
+        <v>136.6416251260792</v>
       </c>
       <c r="H18" t="n">
-        <v>105.5364551361123</v>
+        <v>105.4566448252536</v>
       </c>
       <c r="I18" t="n">
-        <v>65.51513219836517</v>
+        <v>65.23061315193451</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,16 +23858,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>57.09203501320687</v>
+        <v>56.57895837355435</v>
       </c>
       <c r="S18" t="n">
-        <v>158.7993296687211</v>
+        <v>158.6458343615066</v>
       </c>
       <c r="T18" t="n">
-        <v>197.3689198922544</v>
+        <v>197.3356112293665</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8957486402365</v>
+        <v>225.8952049732688</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23902,16 +23904,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.4094646928755</v>
+        <v>167.4025366526095</v>
       </c>
       <c r="H19" t="n">
-        <v>157.0569784807081</v>
+        <v>156.9953819045248</v>
       </c>
       <c r="I19" t="n">
-        <v>137.9627429840806</v>
+        <v>137.7543979186262</v>
       </c>
       <c r="J19" t="n">
-        <v>52.24609325993366</v>
+        <v>51.75628081312638</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,19 +23934,19 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>37.468119754533</v>
+        <v>36.88799085553058</v>
       </c>
       <c r="R19" t="n">
-        <v>151.1463774137605</v>
+        <v>150.8348675305268</v>
       </c>
       <c r="S19" t="n">
-        <v>213.8823833649433</v>
+        <v>213.761646517762</v>
       </c>
       <c r="T19" t="n">
-        <v>225.4609358571529</v>
+        <v>225.4313342305617</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2873103747318</v>
+        <v>286.2869324816264</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23981,13 +23983,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>414.0063503209612</v>
+        <v>413.9909054436208</v>
       </c>
       <c r="H20" t="n">
-        <v>326.1981767634345</v>
+        <v>326.0400019133721</v>
       </c>
       <c r="I20" t="n">
-        <v>160.4969222670197</v>
+        <v>159.9014836333536</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,16 +24016,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>68.43493585512847</v>
+        <v>67.46474657889404</v>
       </c>
       <c r="S20" t="n">
-        <v>179.4786463990094</v>
+        <v>179.1266962566148</v>
       </c>
       <c r="T20" t="n">
-        <v>217.4209146216355</v>
+        <v>217.3533046710778</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2419419323026</v>
+        <v>251.2407063421153</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24060,13 +24062,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>136.6498888639883</v>
+        <v>136.6416251260792</v>
       </c>
       <c r="H21" t="n">
-        <v>105.5364551361123</v>
+        <v>105.4566448252536</v>
       </c>
       <c r="I21" t="n">
-        <v>65.51513219836517</v>
+        <v>65.23061315193451</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,16 +24095,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>57.09203501320687</v>
+        <v>56.57895837355435</v>
       </c>
       <c r="S21" t="n">
-        <v>158.7993296687211</v>
+        <v>158.6458343615066</v>
       </c>
       <c r="T21" t="n">
-        <v>197.3689198922544</v>
+        <v>197.3356112293665</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8957486402365</v>
+        <v>225.8952049732688</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -24139,16 +24141,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.4094646928755</v>
+        <v>167.4025366526095</v>
       </c>
       <c r="H22" t="n">
-        <v>157.0569784807081</v>
+        <v>156.9953819045248</v>
       </c>
       <c r="I22" t="n">
-        <v>137.9627429840806</v>
+        <v>137.7543979186262</v>
       </c>
       <c r="J22" t="n">
-        <v>52.24609325993366</v>
+        <v>51.75628081312638</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,19 +24171,19 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>37.468119754533</v>
+        <v>36.88799085553058</v>
       </c>
       <c r="R22" t="n">
-        <v>151.1463774137605</v>
+        <v>150.8348675305268</v>
       </c>
       <c r="S22" t="n">
-        <v>213.8823833649433</v>
+        <v>213.761646517762</v>
       </c>
       <c r="T22" t="n">
-        <v>225.4609358571529</v>
+        <v>225.4313342305617</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2873103747318</v>
+        <v>286.2869324816264</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24218,13 +24220,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>414.0063503209612</v>
+        <v>413.9909054436208</v>
       </c>
       <c r="H23" t="n">
-        <v>326.1981767634345</v>
+        <v>326.0400019133721</v>
       </c>
       <c r="I23" t="n">
-        <v>160.4969222670197</v>
+        <v>159.9014836333536</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,16 +24253,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>68.43493585512847</v>
+        <v>67.46474657889404</v>
       </c>
       <c r="S23" t="n">
-        <v>179.4786463990094</v>
+        <v>179.1266962566148</v>
       </c>
       <c r="T23" t="n">
-        <v>217.4209146216355</v>
+        <v>217.3533046710778</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2419419323026</v>
+        <v>251.2407063421153</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24297,13 +24299,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>136.6498888639883</v>
+        <v>136.6416251260792</v>
       </c>
       <c r="H24" t="n">
-        <v>105.5364551361123</v>
+        <v>105.4566448252536</v>
       </c>
       <c r="I24" t="n">
-        <v>65.51513219836517</v>
+        <v>65.23061315193451</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24330,16 +24332,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>57.09203501320687</v>
+        <v>56.57895837355435</v>
       </c>
       <c r="S24" t="n">
-        <v>158.7993296687211</v>
+        <v>158.6458343615066</v>
       </c>
       <c r="T24" t="n">
-        <v>197.3689198922544</v>
+        <v>197.3356112293665</v>
       </c>
       <c r="U24" t="n">
-        <v>225.8957486402365</v>
+        <v>225.8952049732688</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -24376,16 +24378,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.4094646928755</v>
+        <v>167.4025366526095</v>
       </c>
       <c r="H25" t="n">
-        <v>157.0569784807081</v>
+        <v>156.9953819045248</v>
       </c>
       <c r="I25" t="n">
-        <v>137.9627429840806</v>
+        <v>137.7543979186262</v>
       </c>
       <c r="J25" t="n">
-        <v>52.24609325993366</v>
+        <v>51.75628081312638</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24406,19 +24408,19 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>37.468119754533</v>
+        <v>36.88799085553058</v>
       </c>
       <c r="R25" t="n">
-        <v>151.1463774137605</v>
+        <v>150.8348675305268</v>
       </c>
       <c r="S25" t="n">
-        <v>213.8823833649433</v>
+        <v>213.761646517762</v>
       </c>
       <c r="T25" t="n">
-        <v>225.4609358571529</v>
+        <v>225.4313342305617</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2873103747318</v>
+        <v>286.2869324816264</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24455,13 +24457,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>414.0063503209612</v>
+        <v>413.9909054436208</v>
       </c>
       <c r="H26" t="n">
-        <v>326.1981767634345</v>
+        <v>326.0400019133721</v>
       </c>
       <c r="I26" t="n">
-        <v>160.4969222670197</v>
+        <v>159.9014836333536</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,16 +24490,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>68.43493585512847</v>
+        <v>67.46474657889404</v>
       </c>
       <c r="S26" t="n">
-        <v>179.4786463990094</v>
+        <v>179.1266962566148</v>
       </c>
       <c r="T26" t="n">
-        <v>217.4209146216355</v>
+        <v>217.3533046710778</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2419419323026</v>
+        <v>251.2407063421153</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24534,13 +24536,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>136.6498888639883</v>
+        <v>136.6416251260792</v>
       </c>
       <c r="H27" t="n">
-        <v>105.5364551361123</v>
+        <v>105.4566448252536</v>
       </c>
       <c r="I27" t="n">
-        <v>65.51513219836517</v>
+        <v>65.23061315193451</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,16 +24569,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>57.09203501320687</v>
+        <v>56.57895837355435</v>
       </c>
       <c r="S27" t="n">
-        <v>158.7993296687211</v>
+        <v>158.6458343615066</v>
       </c>
       <c r="T27" t="n">
-        <v>197.3689198922544</v>
+        <v>197.3356112293665</v>
       </c>
       <c r="U27" t="n">
-        <v>225.8957486402365</v>
+        <v>225.8952049732688</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -24613,16 +24615,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.4094646928755</v>
+        <v>167.4025366526095</v>
       </c>
       <c r="H28" t="n">
-        <v>157.0569784807081</v>
+        <v>156.9953819045248</v>
       </c>
       <c r="I28" t="n">
-        <v>137.9627429840806</v>
+        <v>137.7543979186262</v>
       </c>
       <c r="J28" t="n">
-        <v>52.24609325993366</v>
+        <v>51.75628081312638</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24643,19 +24645,19 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>37.468119754533</v>
+        <v>36.88799085553058</v>
       </c>
       <c r="R28" t="n">
-        <v>151.1463774137605</v>
+        <v>150.8348675305268</v>
       </c>
       <c r="S28" t="n">
-        <v>213.8823833649433</v>
+        <v>213.761646517762</v>
       </c>
       <c r="T28" t="n">
-        <v>225.4609358571529</v>
+        <v>225.4313342305617</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2873103747318</v>
+        <v>286.2869324816264</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24692,13 +24694,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>414.0063503209612</v>
+        <v>413.9909054436208</v>
       </c>
       <c r="H29" t="n">
-        <v>326.1981767634345</v>
+        <v>326.0400019133721</v>
       </c>
       <c r="I29" t="n">
-        <v>160.4969222670197</v>
+        <v>159.9014836333536</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,16 +24727,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>68.43493585512847</v>
+        <v>67.46474657889404</v>
       </c>
       <c r="S29" t="n">
-        <v>179.4786463990094</v>
+        <v>179.1266962566148</v>
       </c>
       <c r="T29" t="n">
-        <v>217.4209146216355</v>
+        <v>217.3533046710778</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2419419323026</v>
+        <v>251.2407063421153</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24771,13 +24773,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>136.6498888639883</v>
+        <v>136.6416251260792</v>
       </c>
       <c r="H30" t="n">
-        <v>105.5364551361123</v>
+        <v>105.4566448252536</v>
       </c>
       <c r="I30" t="n">
-        <v>65.51513219836517</v>
+        <v>65.23061315193451</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24804,16 +24806,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>57.09203501320687</v>
+        <v>56.57895837355435</v>
       </c>
       <c r="S30" t="n">
-        <v>158.7993296687211</v>
+        <v>158.6458343615066</v>
       </c>
       <c r="T30" t="n">
-        <v>197.3689198922544</v>
+        <v>197.3356112293665</v>
       </c>
       <c r="U30" t="n">
-        <v>225.8957486402365</v>
+        <v>225.8952049732688</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -24850,16 +24852,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.4094646928755</v>
+        <v>167.4025366526095</v>
       </c>
       <c r="H31" t="n">
-        <v>157.0569784807081</v>
+        <v>156.9953819045248</v>
       </c>
       <c r="I31" t="n">
-        <v>137.9627429840806</v>
+        <v>137.7543979186262</v>
       </c>
       <c r="J31" t="n">
-        <v>52.24609325993366</v>
+        <v>51.75628081312638</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24880,19 +24882,19 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>37.468119754533</v>
+        <v>36.88799085553058</v>
       </c>
       <c r="R31" t="n">
-        <v>151.1463774137605</v>
+        <v>150.8348675305268</v>
       </c>
       <c r="S31" t="n">
-        <v>213.8823833649433</v>
+        <v>213.761646517762</v>
       </c>
       <c r="T31" t="n">
-        <v>225.4609358571529</v>
+        <v>225.4313342305617</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2873103747318</v>
+        <v>286.2869324816264</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24929,13 +24931,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>414.0063503209612</v>
+        <v>413.9909054436208</v>
       </c>
       <c r="H32" t="n">
-        <v>326.1981767634345</v>
+        <v>326.0400019133721</v>
       </c>
       <c r="I32" t="n">
-        <v>160.4969222670197</v>
+        <v>159.9014836333536</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,16 +24964,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>68.43493585512847</v>
+        <v>67.46474657889404</v>
       </c>
       <c r="S32" t="n">
-        <v>179.4786463990094</v>
+        <v>179.1266962566148</v>
       </c>
       <c r="T32" t="n">
-        <v>217.4209146216355</v>
+        <v>217.3533046710778</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2419419323026</v>
+        <v>251.2407063421153</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -25008,13 +25010,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>136.6498888639883</v>
+        <v>136.6416251260792</v>
       </c>
       <c r="H33" t="n">
-        <v>105.5364551361123</v>
+        <v>105.4566448252536</v>
       </c>
       <c r="I33" t="n">
-        <v>65.51513219836517</v>
+        <v>65.23061315193451</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25041,16 +25043,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>57.09203501320687</v>
+        <v>56.57895837355435</v>
       </c>
       <c r="S33" t="n">
-        <v>158.7993296687211</v>
+        <v>158.6458343615066</v>
       </c>
       <c r="T33" t="n">
-        <v>197.3689198922544</v>
+        <v>197.3356112293665</v>
       </c>
       <c r="U33" t="n">
-        <v>225.8957486402365</v>
+        <v>225.8952049732688</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -25087,16 +25089,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.4094646928755</v>
+        <v>167.4025366526095</v>
       </c>
       <c r="H34" t="n">
-        <v>157.0569784807081</v>
+        <v>156.9953819045248</v>
       </c>
       <c r="I34" t="n">
-        <v>137.9627429840806</v>
+        <v>137.7543979186262</v>
       </c>
       <c r="J34" t="n">
-        <v>52.24609325993366</v>
+        <v>51.75628081312638</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25117,19 +25119,19 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>37.468119754533</v>
+        <v>36.88799085553058</v>
       </c>
       <c r="R34" t="n">
-        <v>151.1463774137605</v>
+        <v>150.8348675305268</v>
       </c>
       <c r="S34" t="n">
-        <v>213.8823833649433</v>
+        <v>213.761646517762</v>
       </c>
       <c r="T34" t="n">
-        <v>225.4609358571529</v>
+        <v>225.4313342305617</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2873103747318</v>
+        <v>286.2869324816264</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25166,13 +25168,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>414.0063503209612</v>
+        <v>413.9909054436208</v>
       </c>
       <c r="H35" t="n">
-        <v>326.1981767634345</v>
+        <v>326.0400019133721</v>
       </c>
       <c r="I35" t="n">
-        <v>160.4969222670197</v>
+        <v>159.9014836333536</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,16 +25201,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>68.43493585512847</v>
+        <v>67.46474657889404</v>
       </c>
       <c r="S35" t="n">
-        <v>179.4786463990094</v>
+        <v>179.1266962566148</v>
       </c>
       <c r="T35" t="n">
-        <v>217.4209146216355</v>
+        <v>217.3533046710778</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2419419323026</v>
+        <v>251.2407063421153</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25245,13 +25247,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>136.6498888639883</v>
+        <v>136.6416251260792</v>
       </c>
       <c r="H36" t="n">
-        <v>105.5364551361123</v>
+        <v>105.4566448252536</v>
       </c>
       <c r="I36" t="n">
-        <v>65.51513219836517</v>
+        <v>65.23061315193451</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25278,16 +25280,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>57.09203501320687</v>
+        <v>56.57895837355435</v>
       </c>
       <c r="S36" t="n">
-        <v>158.7993296687211</v>
+        <v>158.6458343615066</v>
       </c>
       <c r="T36" t="n">
-        <v>197.3689198922544</v>
+        <v>197.3356112293665</v>
       </c>
       <c r="U36" t="n">
-        <v>225.8957486402365</v>
+        <v>225.8952049732688</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -25324,16 +25326,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.4094646928755</v>
+        <v>167.4025366526095</v>
       </c>
       <c r="H37" t="n">
-        <v>157.0569784807081</v>
+        <v>156.9953819045248</v>
       </c>
       <c r="I37" t="n">
-        <v>137.9627429840806</v>
+        <v>137.7543979186262</v>
       </c>
       <c r="J37" t="n">
-        <v>52.24609325993366</v>
+        <v>51.75628081312638</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25354,19 +25356,19 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>37.468119754533</v>
+        <v>36.88799085553058</v>
       </c>
       <c r="R37" t="n">
-        <v>151.1463774137605</v>
+        <v>150.8348675305268</v>
       </c>
       <c r="S37" t="n">
-        <v>213.8823833649433</v>
+        <v>213.761646517762</v>
       </c>
       <c r="T37" t="n">
-        <v>225.4609358571529</v>
+        <v>225.4313342305617</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2873103747318</v>
+        <v>286.2869324816264</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25403,13 +25405,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>414.0063503209612</v>
+        <v>413.9909054436208</v>
       </c>
       <c r="H38" t="n">
-        <v>326.1981767634345</v>
+        <v>326.0400019133721</v>
       </c>
       <c r="I38" t="n">
-        <v>160.4969222670197</v>
+        <v>159.9014836333536</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,16 +25438,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>68.43493585512847</v>
+        <v>67.46474657889404</v>
       </c>
       <c r="S38" t="n">
-        <v>179.4786463990094</v>
+        <v>179.1266962566148</v>
       </c>
       <c r="T38" t="n">
-        <v>217.4209146216355</v>
+        <v>217.3533046710778</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2419419323026</v>
+        <v>251.2407063421153</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25482,13 +25484,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>136.6498888639883</v>
+        <v>136.6416251260792</v>
       </c>
       <c r="H39" t="n">
-        <v>105.5364551361123</v>
+        <v>105.4566448252536</v>
       </c>
       <c r="I39" t="n">
-        <v>65.51513219836517</v>
+        <v>65.23061315193451</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25515,16 +25517,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>57.09203501320687</v>
+        <v>56.57895837355435</v>
       </c>
       <c r="S39" t="n">
-        <v>158.7993296687211</v>
+        <v>158.6458343615066</v>
       </c>
       <c r="T39" t="n">
-        <v>197.3689198922544</v>
+        <v>197.3356112293665</v>
       </c>
       <c r="U39" t="n">
-        <v>225.8957486402365</v>
+        <v>225.8952049732688</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -25561,16 +25563,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.4094646928755</v>
+        <v>167.4025366526095</v>
       </c>
       <c r="H40" t="n">
-        <v>157.0569784807081</v>
+        <v>156.9953819045248</v>
       </c>
       <c r="I40" t="n">
-        <v>137.9627429840806</v>
+        <v>137.7543979186262</v>
       </c>
       <c r="J40" t="n">
-        <v>52.24609325993366</v>
+        <v>51.75628081312638</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25591,19 +25593,19 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>37.468119754533</v>
+        <v>36.88799085553058</v>
       </c>
       <c r="R40" t="n">
-        <v>151.1463774137605</v>
+        <v>150.8348675305268</v>
       </c>
       <c r="S40" t="n">
-        <v>213.8823833649433</v>
+        <v>213.761646517762</v>
       </c>
       <c r="T40" t="n">
-        <v>225.4609358571529</v>
+        <v>225.4313342305617</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2873103747318</v>
+        <v>286.2869324816264</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25640,13 +25642,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>414.0063503209612</v>
+        <v>413.9909054436208</v>
       </c>
       <c r="H41" t="n">
-        <v>326.1981767634345</v>
+        <v>326.0400019133721</v>
       </c>
       <c r="I41" t="n">
-        <v>160.4969222670197</v>
+        <v>159.9014836333536</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,16 +25675,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>68.43493585512847</v>
+        <v>67.46474657889404</v>
       </c>
       <c r="S41" t="n">
-        <v>179.4786463990094</v>
+        <v>179.1266962566148</v>
       </c>
       <c r="T41" t="n">
-        <v>217.4209146216355</v>
+        <v>217.3533046710778</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2419419323026</v>
+        <v>251.2407063421153</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25719,13 +25721,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>136.6498888639883</v>
+        <v>136.6416251260792</v>
       </c>
       <c r="H42" t="n">
-        <v>105.5364551361123</v>
+        <v>105.4566448252536</v>
       </c>
       <c r="I42" t="n">
-        <v>65.51513219836517</v>
+        <v>65.23061315193451</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25752,16 +25754,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>57.09203501320687</v>
+        <v>56.57895837355435</v>
       </c>
       <c r="S42" t="n">
-        <v>158.7993296687211</v>
+        <v>158.6458343615066</v>
       </c>
       <c r="T42" t="n">
-        <v>197.3689198922544</v>
+        <v>197.3356112293665</v>
       </c>
       <c r="U42" t="n">
-        <v>225.8957486402365</v>
+        <v>225.8952049732688</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -25798,16 +25800,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.4094646928755</v>
+        <v>167.4025366526095</v>
       </c>
       <c r="H43" t="n">
-        <v>157.0569784807081</v>
+        <v>156.9953819045248</v>
       </c>
       <c r="I43" t="n">
-        <v>137.9627429840806</v>
+        <v>137.7543979186262</v>
       </c>
       <c r="J43" t="n">
-        <v>52.24609325993366</v>
+        <v>51.75628081312638</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,19 +25830,19 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>37.468119754533</v>
+        <v>36.88799085553058</v>
       </c>
       <c r="R43" t="n">
-        <v>151.1463774137605</v>
+        <v>150.8348675305268</v>
       </c>
       <c r="S43" t="n">
-        <v>213.8823833649433</v>
+        <v>213.761646517762</v>
       </c>
       <c r="T43" t="n">
-        <v>225.4609358571529</v>
+        <v>225.4313342305617</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2873103747318</v>
+        <v>286.2869324816264</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25877,13 +25879,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>414.0063503209612</v>
+        <v>413.9909054436208</v>
       </c>
       <c r="H44" t="n">
-        <v>326.1981767634345</v>
+        <v>326.0400019133721</v>
       </c>
       <c r="I44" t="n">
-        <v>160.4969222670197</v>
+        <v>159.9014836333536</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25910,16 +25912,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>68.43493585512847</v>
+        <v>67.46474657889404</v>
       </c>
       <c r="S44" t="n">
-        <v>179.4786463990094</v>
+        <v>179.1266962566148</v>
       </c>
       <c r="T44" t="n">
-        <v>217.4209146216355</v>
+        <v>217.3533046710778</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2419419323026</v>
+        <v>251.2407063421153</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25956,13 +25958,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>136.6498888639883</v>
+        <v>136.6416251260792</v>
       </c>
       <c r="H45" t="n">
-        <v>105.5364551361123</v>
+        <v>105.4566448252536</v>
       </c>
       <c r="I45" t="n">
-        <v>65.51513219836517</v>
+        <v>65.23061315193451</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25989,16 +25991,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>57.09203501320687</v>
+        <v>56.57895837355435</v>
       </c>
       <c r="S45" t="n">
-        <v>158.7993296687211</v>
+        <v>158.6458343615066</v>
       </c>
       <c r="T45" t="n">
-        <v>197.3689198922544</v>
+        <v>197.3356112293665</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8957486402365</v>
+        <v>225.8952049732688</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -26035,16 +26037,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.4094646928755</v>
+        <v>167.4025366526095</v>
       </c>
       <c r="H46" t="n">
-        <v>157.0569784807081</v>
+        <v>156.9953819045248</v>
       </c>
       <c r="I46" t="n">
-        <v>137.9627429840806</v>
+        <v>137.7543979186262</v>
       </c>
       <c r="J46" t="n">
-        <v>52.24609325993366</v>
+        <v>51.75628081312638</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26065,19 +26067,19 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>37.468119754533</v>
+        <v>36.88799085553058</v>
       </c>
       <c r="R46" t="n">
-        <v>151.1463774137605</v>
+        <v>150.8348675305268</v>
       </c>
       <c r="S46" t="n">
-        <v>213.8823833649433</v>
+        <v>213.761646517762</v>
       </c>
       <c r="T46" t="n">
-        <v>225.4609358571529</v>
+        <v>225.4313342305617</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2873103747318</v>
+        <v>286.2869324816264</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>921770.4018703941</v>
+        <v>921763.4471438467</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>921779.7677579748</v>
+        <v>921779.767757975</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>297625.6849027066</v>
+        <v>297003.9017239847</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>297625.6849027066</v>
+        <v>297003.9017239847</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>297625.6849027066</v>
+        <v>297003.9017239847</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>297625.6849027066</v>
+        <v>297003.9017239847</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>297625.6849027066</v>
+        <v>297003.9017239847</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>297625.6849027066</v>
+        <v>297003.9017239847</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>297625.6849027066</v>
+        <v>297003.9017239847</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>297625.6849027066</v>
+        <v>297003.9017239847</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>297625.6849027066</v>
+        <v>297003.9017239847</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>297625.6849027066</v>
+        <v>297003.9017239847</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>297625.6849027066</v>
+        <v>297003.9017239847</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>297625.6849027066</v>
+        <v>297003.9017239847</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26316,46 @@
         <v>512047.7116981491</v>
       </c>
       <c r="C2" t="n">
-        <v>512094.6677057742</v>
+        <v>512090.8039688033</v>
       </c>
       <c r="D2" t="n">
-        <v>512099.8709766526</v>
+        <v>512099.8709766524</v>
       </c>
       <c r="E2" t="n">
-        <v>149554.7936042173</v>
+        <v>149717.8262789326</v>
       </c>
       <c r="F2" t="n">
-        <v>149554.7936042173</v>
+        <v>149717.8262789326</v>
       </c>
       <c r="G2" t="n">
-        <v>149554.7936042173</v>
+        <v>149717.8262789326</v>
       </c>
       <c r="H2" t="n">
-        <v>149554.7936042173</v>
+        <v>149717.8262789327</v>
       </c>
       <c r="I2" t="n">
-        <v>149554.7936042173</v>
+        <v>149717.8262789327</v>
       </c>
       <c r="J2" t="n">
-        <v>149554.7936042173</v>
+        <v>149717.8262789327</v>
       </c>
       <c r="K2" t="n">
-        <v>149554.7936042173</v>
+        <v>149717.8262789327</v>
       </c>
       <c r="L2" t="n">
-        <v>149554.7936042173</v>
+        <v>149717.8262789327</v>
       </c>
       <c r="M2" t="n">
-        <v>149554.7936042173</v>
+        <v>149717.8262789327</v>
       </c>
       <c r="N2" t="n">
-        <v>149554.7936042173</v>
+        <v>149717.8262789327</v>
       </c>
       <c r="O2" t="n">
-        <v>149554.7936042173</v>
+        <v>149717.8262789327</v>
       </c>
       <c r="P2" t="n">
-        <v>149554.7936042173</v>
+        <v>149717.8262789326</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26368,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>213791.1722776066</v>
+        <v>196199.5392125275</v>
       </c>
       <c r="D3" t="n">
-        <v>22280.77012981693</v>
+        <v>38825.56230004787</v>
       </c>
       <c r="E3" t="n">
-        <v>49553.83440129749</v>
+        <v>52640.43902278915</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>467615.9599317313</v>
+        <v>467615.9599317312</v>
       </c>
       <c r="C4" t="n">
-        <v>385783.8405692248</v>
+        <v>392517.3300834397</v>
       </c>
       <c r="D4" t="n">
-        <v>377068.1104903041</v>
+        <v>377068.1104903042</v>
       </c>
       <c r="E4" t="n">
-        <v>28427.05641511514</v>
+        <v>27511.81442190543</v>
       </c>
       <c r="F4" t="n">
-        <v>28427.05641511514</v>
+        <v>27511.81442190543</v>
       </c>
       <c r="G4" t="n">
-        <v>28427.05641511514</v>
+        <v>27511.81442190543</v>
       </c>
       <c r="H4" t="n">
-        <v>28427.05641511514</v>
+        <v>27511.81442190543</v>
       </c>
       <c r="I4" t="n">
-        <v>28427.05641511514</v>
+        <v>27511.81442190543</v>
       </c>
       <c r="J4" t="n">
-        <v>28427.05641511514</v>
+        <v>27511.81442190543</v>
       </c>
       <c r="K4" t="n">
-        <v>28427.05641511514</v>
+        <v>27511.81442190543</v>
       </c>
       <c r="L4" t="n">
-        <v>28427.05641511514</v>
+        <v>27511.81442190543</v>
       </c>
       <c r="M4" t="n">
-        <v>28427.05641511514</v>
+        <v>27511.81442190543</v>
       </c>
       <c r="N4" t="n">
-        <v>28427.05641511514</v>
+        <v>27511.81442190543</v>
       </c>
       <c r="O4" t="n">
-        <v>28427.05641511514</v>
+        <v>27511.81442190543</v>
       </c>
       <c r="P4" t="n">
-        <v>28427.05641511514</v>
+        <v>27511.81442190543</v>
       </c>
     </row>
     <row r="5">
@@ -26470,46 +26472,46 @@
         <v>33627.6</v>
       </c>
       <c r="C5" t="n">
-        <v>38745.80483114667</v>
+        <v>38324.65750133769</v>
       </c>
       <c r="D5" t="n">
         <v>39312.96135688073</v>
       </c>
       <c r="E5" t="n">
-        <v>7029.98365720608</v>
+        <v>7113.737365803781</v>
       </c>
       <c r="F5" t="n">
-        <v>7029.98365720608</v>
+        <v>7113.737365803781</v>
       </c>
       <c r="G5" t="n">
-        <v>7029.98365720608</v>
+        <v>7113.737365803781</v>
       </c>
       <c r="H5" t="n">
-        <v>7029.98365720608</v>
+        <v>7113.737365803781</v>
       </c>
       <c r="I5" t="n">
-        <v>7029.98365720608</v>
+        <v>7113.737365803781</v>
       </c>
       <c r="J5" t="n">
-        <v>7029.98365720608</v>
+        <v>7113.737365803781</v>
       </c>
       <c r="K5" t="n">
-        <v>7029.98365720608</v>
+        <v>7113.737365803781</v>
       </c>
       <c r="L5" t="n">
-        <v>7029.98365720608</v>
+        <v>7113.737365803781</v>
       </c>
       <c r="M5" t="n">
-        <v>7029.98365720608</v>
+        <v>7113.737365803781</v>
       </c>
       <c r="N5" t="n">
-        <v>7029.98365720608</v>
+        <v>7113.737365803781</v>
       </c>
       <c r="O5" t="n">
-        <v>7029.98365720608</v>
+        <v>7113.737365803781</v>
       </c>
       <c r="P5" t="n">
-        <v>7029.98365720608</v>
+        <v>7113.737365803781</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10804.15176641784</v>
+        <v>10804.15176641788</v>
       </c>
       <c r="C6" t="n">
-        <v>-126226.1499722037</v>
+        <v>-114950.7228285016</v>
       </c>
       <c r="D6" t="n">
-        <v>73438.02899965085</v>
+        <v>56893.23682941961</v>
       </c>
       <c r="E6" t="n">
-        <v>64543.91913059854</v>
+        <v>62451.83546843423</v>
       </c>
       <c r="F6" t="n">
-        <v>114097.753531896</v>
+        <v>115092.2744912234</v>
       </c>
       <c r="G6" t="n">
-        <v>114097.753531896</v>
+        <v>115092.2744912234</v>
       </c>
       <c r="H6" t="n">
-        <v>114097.753531896</v>
+        <v>115092.2744912234</v>
       </c>
       <c r="I6" t="n">
-        <v>114097.753531896</v>
+        <v>115092.2744912235</v>
       </c>
       <c r="J6" t="n">
-        <v>114097.753531896</v>
+        <v>115092.2744912235</v>
       </c>
       <c r="K6" t="n">
-        <v>114097.753531896</v>
+        <v>115092.2744912234</v>
       </c>
       <c r="L6" t="n">
-        <v>114097.753531896</v>
+        <v>115092.2744912234</v>
       </c>
       <c r="M6" t="n">
-        <v>114097.753531896</v>
+        <v>115092.2744912235</v>
       </c>
       <c r="N6" t="n">
-        <v>114097.753531896</v>
+        <v>115092.2744912235</v>
       </c>
       <c r="O6" t="n">
-        <v>114097.753531896</v>
+        <v>115092.2744912235</v>
       </c>
       <c r="P6" t="n">
-        <v>114097.753531896</v>
+        <v>115092.2744912234</v>
       </c>
     </row>
   </sheetData>
@@ -26738,46 +26740,46 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>234.7800381259942</v>
+        <v>215.4613532723709</v>
       </c>
       <c r="D3" t="n">
         <v>260.7963925174648</v>
       </c>
       <c r="E3" t="n">
-        <v>322.4763145507376</v>
+        <v>326.3182277891643</v>
       </c>
       <c r="F3" t="n">
-        <v>322.4763145507376</v>
+        <v>326.3182277891643</v>
       </c>
       <c r="G3" t="n">
-        <v>322.4763145507376</v>
+        <v>326.3182277891643</v>
       </c>
       <c r="H3" t="n">
-        <v>322.4763145507376</v>
+        <v>326.3182277891643</v>
       </c>
       <c r="I3" t="n">
-        <v>322.4763145507376</v>
+        <v>326.3182277891643</v>
       </c>
       <c r="J3" t="n">
-        <v>322.4763145507376</v>
+        <v>326.3182277891643</v>
       </c>
       <c r="K3" t="n">
-        <v>322.4763145507376</v>
+        <v>326.3182277891643</v>
       </c>
       <c r="L3" t="n">
-        <v>322.4763145507376</v>
+        <v>326.3182277891643</v>
       </c>
       <c r="M3" t="n">
-        <v>322.4763145507376</v>
+        <v>326.3182277891643</v>
       </c>
       <c r="N3" t="n">
-        <v>322.4763145507376</v>
+        <v>326.3182277891643</v>
       </c>
       <c r="O3" t="n">
-        <v>322.4763145507376</v>
+        <v>326.3182277891643</v>
       </c>
       <c r="P3" t="n">
-        <v>322.4763145507376</v>
+        <v>326.3182277891643</v>
       </c>
     </row>
     <row r="4">
@@ -26960,13 +26962,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>234.7800381259942</v>
+        <v>215.4613532723709</v>
       </c>
       <c r="D3" t="n">
-        <v>26.01635439147063</v>
+        <v>45.33503924509392</v>
       </c>
       <c r="E3" t="n">
-        <v>61.67992203327283</v>
+        <v>65.52183527169944</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27631,46 +27633,46 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>329.8087073802583</v>
+        <v>330.604074139081</v>
       </c>
       <c r="I5" t="n">
-        <v>174.0885230584365</v>
+        <v>177.082627974293</v>
       </c>
       <c r="J5" t="n">
-        <v>100.9387195582597</v>
+        <v>107.5302742460797</v>
       </c>
       <c r="K5" t="n">
-        <v>100.0299464227919</v>
+        <v>109.908978215552</v>
       </c>
       <c r="L5" t="n">
-        <v>86.82148686318186</v>
+        <v>99.07729936584784</v>
       </c>
       <c r="M5" t="n">
-        <v>64.61630209323863</v>
+        <v>78.25325494471113</v>
       </c>
       <c r="N5" t="n">
-        <v>61.00144891149961</v>
+        <v>74.85906191710419</v>
       </c>
       <c r="O5" t="n">
-        <v>71.0718992657024</v>
+        <v>84.15725027125384</v>
       </c>
       <c r="P5" t="n">
-        <v>95.50771753390021</v>
+        <v>106.6757618768433</v>
       </c>
       <c r="Q5" t="n">
-        <v>120.3816583481039</v>
+        <v>128.7683945450354</v>
       </c>
       <c r="R5" t="n">
-        <v>156.2970892917925</v>
+        <v>161.1755911508334</v>
       </c>
       <c r="S5" t="n">
-        <v>187.5123304152058</v>
+        <v>189.282077273907</v>
       </c>
       <c r="T5" t="n">
-        <v>218.9641928127885</v>
+        <v>219.3041628346849</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2701457598965</v>
+        <v>251.2763588042715</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27707,49 +27709,49 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.8385185906377</v>
+        <v>136.8800719882474</v>
       </c>
       <c r="H6" t="n">
-        <v>107.3582211803319</v>
+        <v>107.7595395204044</v>
       </c>
       <c r="I6" t="n">
-        <v>82.13536774255608</v>
+        <v>83.56604393218763</v>
       </c>
       <c r="J6" t="n">
-        <v>79.12633608862856</v>
+        <v>83.05222090402384</v>
       </c>
       <c r="K6" t="n">
-        <v>56.29524403393702</v>
+        <v>63.00520648918088</v>
       </c>
       <c r="L6" t="n">
-        <v>28.90545725697471</v>
+        <v>37.9278298388485</v>
       </c>
       <c r="M6" t="n">
-        <v>14.17891314335149</v>
+        <v>24.70759638857619</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>10.80734616165101</v>
       </c>
       <c r="O6" t="n">
-        <v>22.44423757443683</v>
+        <v>32.3308479258944</v>
       </c>
       <c r="P6" t="n">
-        <v>37.54182911310821</v>
+        <v>45.47670553911811</v>
       </c>
       <c r="Q6" t="n">
-        <v>75.51914927829571</v>
+        <v>80.82340403282262</v>
       </c>
       <c r="R6" t="n">
-        <v>114.3252943440434</v>
+        <v>116.9052500307216</v>
       </c>
       <c r="S6" t="n">
-        <v>162.3030441088983</v>
+        <v>163.0748802443238</v>
       </c>
       <c r="T6" t="n">
-        <v>198.1292300623896</v>
+        <v>198.2967194150357</v>
       </c>
       <c r="U6" t="n">
-        <v>225.908158490674</v>
+        <v>225.9108922668325</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27786,49 +27788,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.5676055192152</v>
+        <v>167.602442491902</v>
       </c>
       <c r="H7" t="n">
-        <v>158.4629941912556</v>
+        <v>158.772726548417</v>
       </c>
       <c r="I7" t="n">
-        <v>142.7184689252781</v>
+        <v>143.7661117038976</v>
       </c>
       <c r="J7" t="n">
-        <v>97.06289100487388</v>
+        <v>99.52586497383498</v>
       </c>
       <c r="K7" t="n">
-        <v>79.82491575659759</v>
+        <v>83.87233858330752</v>
       </c>
       <c r="L7" t="n">
-        <v>71.94053294496764</v>
+        <v>77.11984068424889</v>
       </c>
       <c r="M7" t="n">
-        <v>72.56001021962938</v>
+        <v>78.02086403817079</v>
       </c>
       <c r="N7" t="n">
-        <v>62.89780050171086</v>
+        <v>68.22880742205579</v>
       </c>
       <c r="O7" t="n">
-        <v>78.61457070130248</v>
+        <v>83.53861844071453</v>
       </c>
       <c r="P7" t="n">
-        <v>86.52286261917671</v>
+        <v>90.73623611577678</v>
       </c>
       <c r="Q7" t="n">
-        <v>116.0532158724207</v>
+        <v>118.9703372853178</v>
       </c>
       <c r="R7" t="n">
-        <v>158.2569640235438</v>
+        <v>159.8233609954458</v>
       </c>
       <c r="S7" t="n">
-        <v>216.6383466748816</v>
+        <v>217.2454600988881</v>
       </c>
       <c r="T7" t="n">
-        <v>226.1366284787861</v>
+        <v>226.2854773620845</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2959362379867</v>
+        <v>286.2978364364969</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9438393492502272</v>
+        <v>0.8661762945622944</v>
       </c>
       <c r="H5" t="n">
-        <v>9.666094735508892</v>
+        <v>8.8707279766861</v>
       </c>
       <c r="I5" t="n">
-        <v>36.38736651196942</v>
+        <v>33.39326159611289</v>
       </c>
       <c r="J5" t="n">
-        <v>80.10718496842655</v>
+        <v>73.5156302806066</v>
       </c>
       <c r="K5" t="n">
-        <v>120.0599046221887</v>
+        <v>110.1808728294286</v>
       </c>
       <c r="L5" t="n">
-        <v>148.9449281068054</v>
+        <v>136.6891156041394</v>
       </c>
       <c r="M5" t="n">
-        <v>165.7299311340341</v>
+        <v>152.0929782825616</v>
       </c>
       <c r="N5" t="n">
-        <v>168.4116146850913</v>
+        <v>154.5540016794867</v>
       </c>
       <c r="O5" t="n">
-        <v>159.0263121559843</v>
+        <v>145.9409611504329</v>
       </c>
       <c r="P5" t="n">
-        <v>135.7252782213693</v>
+        <v>124.5572338784262</v>
       </c>
       <c r="Q5" t="n">
-        <v>101.9240315263455</v>
+        <v>93.53729532941404</v>
       </c>
       <c r="R5" t="n">
-        <v>59.28844852233964</v>
+        <v>54.40994666329878</v>
       </c>
       <c r="S5" t="n">
-        <v>21.50773917103957</v>
+        <v>19.7379923123383</v>
       </c>
       <c r="T5" t="n">
-        <v>4.131656751342871</v>
+        <v>3.791686729446446</v>
       </c>
       <c r="U5" t="n">
-        <v>0.07550714794001816</v>
+        <v>0.06929410356498354</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5049985725728932</v>
+        <v>0.4634451749632129</v>
       </c>
       <c r="H6" t="n">
-        <v>4.877223056164522</v>
+        <v>4.475904716092083</v>
       </c>
       <c r="I6" t="n">
-        <v>17.38701225744391</v>
+        <v>15.95633606781238</v>
       </c>
       <c r="J6" t="n">
-        <v>47.71129057803813</v>
+        <v>43.78540576264285</v>
       </c>
       <c r="K6" t="n">
-        <v>81.54619494042197</v>
+        <v>74.83623248517812</v>
       </c>
       <c r="L6" t="n">
-        <v>109.6489225228995</v>
+        <v>100.6265499410257</v>
       </c>
       <c r="M6" t="n">
-        <v>127.9551207786668</v>
+        <v>117.4264375334421</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>120.5343659216823</v>
       </c>
       <c r="O6" t="n">
-        <v>120.1520068700076</v>
+        <v>110.26539651855</v>
       </c>
       <c r="P6" t="n">
-        <v>96.43257830122204</v>
+        <v>88.49770187521213</v>
       </c>
       <c r="Q6" t="n">
-        <v>64.4626248077258</v>
+        <v>59.1583700531989</v>
       </c>
       <c r="R6" t="n">
-        <v>31.35420961992052</v>
+        <v>28.7742539332423</v>
       </c>
       <c r="S6" t="n">
-        <v>9.380126994939479</v>
+        <v>8.608290859514058</v>
       </c>
       <c r="T6" t="n">
-        <v>2.035498632431968</v>
+        <v>1.868009279785932</v>
       </c>
       <c r="U6" t="n">
-        <v>0.03322359030084825</v>
+        <v>0.03048981414231665</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.423373839243596</v>
+        <v>0.3885368665567344</v>
       </c>
       <c r="H7" t="n">
-        <v>3.764178316183975</v>
+        <v>3.454445959022605</v>
       </c>
       <c r="I7" t="n">
-        <v>12.73200600198015</v>
+        <v>11.68436322336071</v>
       </c>
       <c r="J7" t="n">
-        <v>29.93253043452224</v>
+        <v>27.46955646556112</v>
       </c>
       <c r="K7" t="n">
-        <v>49.18834241393778</v>
+        <v>45.14091958722786</v>
       </c>
       <c r="L7" t="n">
-        <v>62.94414333627064</v>
+        <v>57.76483559698941</v>
       </c>
       <c r="M7" t="n">
-        <v>66.36577372797568</v>
+        <v>60.90491990943427</v>
       </c>
       <c r="N7" t="n">
-        <v>64.78774396352233</v>
+        <v>59.4567370431774</v>
       </c>
       <c r="O7" t="n">
-        <v>59.84196775054031</v>
+        <v>54.91792001112826</v>
       </c>
       <c r="P7" t="n">
-        <v>51.20514142997091</v>
+        <v>46.99176793337084</v>
       </c>
       <c r="Q7" t="n">
-        <v>35.45178575702513</v>
+        <v>32.534664344128</v>
       </c>
       <c r="R7" t="n">
-        <v>19.03642735362569</v>
+        <v>17.47003038172371</v>
       </c>
       <c r="S7" t="n">
-        <v>7.378251362090667</v>
+        <v>6.771137938084178</v>
       </c>
       <c r="T7" t="n">
-        <v>1.808960949495364</v>
+        <v>1.660112066196956</v>
       </c>
       <c r="U7" t="n">
-        <v>0.02309311850419617</v>
+        <v>0.02119291999400372</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.296387194173819</v>
+        <v>1.311832071514227</v>
       </c>
       <c r="H11" t="n">
-        <v>13.27662535233262</v>
+        <v>13.43480020239508</v>
       </c>
       <c r="I11" t="n">
-        <v>49.97896730338619</v>
+        <v>50.5744059370523</v>
       </c>
       <c r="J11" t="n">
-        <v>110.0292426215102</v>
+        <v>111.3401072796808</v>
       </c>
       <c r="K11" t="n">
-        <v>164.905312550888</v>
+        <v>166.869958866878</v>
       </c>
       <c r="L11" t="n">
-        <v>204.5796221445851</v>
+        <v>207.0169396254816</v>
       </c>
       <c r="M11" t="n">
-        <v>227.6342479089737</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N11" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O11" t="n">
-        <v>218.4266578623542</v>
+        <v>221.0289459393429</v>
       </c>
       <c r="P11" t="n">
-        <v>186.422099006188</v>
+        <v>188.6430916738354</v>
       </c>
       <c r="Q11" t="n">
-        <v>139.995232614838</v>
+        <v>141.6631056127321</v>
       </c>
       <c r="R11" t="n">
-        <v>81.43418208602121</v>
+        <v>82.40437136225566</v>
       </c>
       <c r="S11" t="n">
-        <v>29.54142318723592</v>
+        <v>29.89337332963048</v>
       </c>
       <c r="T11" t="n">
-        <v>5.674934942495894</v>
+        <v>5.742544893053533</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1037109755339055</v>
+        <v>0.1049465657211382</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,19 +31831,19 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6936282992223414</v>
+        <v>0.70189203713141</v>
       </c>
       <c r="H12" t="n">
-        <v>6.698989100384193</v>
+        <v>6.778799411242828</v>
       </c>
       <c r="I12" t="n">
-        <v>23.88150065304992</v>
+        <v>24.16601969948056</v>
       </c>
       <c r="J12" t="n">
-        <v>65.5326631295985</v>
+        <v>66.31340513968291</v>
       </c>
       <c r="K12" t="n">
-        <v>112.0057591774954</v>
+        <v>113.3401716274874</v>
       </c>
       <c r="L12" t="n">
         <v>138.5543797798742</v>
@@ -31856,22 +31858,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>132.4525828576417</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.54104394985538</v>
+        <v>89.59590284505508</v>
       </c>
       <c r="R12" t="n">
-        <v>43.06579913943627</v>
+        <v>43.57887577908879</v>
       </c>
       <c r="S12" t="n">
-        <v>12.88384143511673</v>
+        <v>13.03733674233122</v>
       </c>
       <c r="T12" t="n">
-        <v>2.795808802567243</v>
+        <v>2.829117465455112</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04563344073831195</v>
+        <v>0.04617710770601383</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5815146655832973</v>
+        <v>0.5884427058493126</v>
       </c>
       <c r="H13" t="n">
-        <v>5.170194026731502</v>
+        <v>5.231790602914802</v>
       </c>
       <c r="I13" t="n">
-        <v>17.48773194317771</v>
+        <v>17.69607700863206</v>
       </c>
       <c r="J13" t="n">
-        <v>41.11308685673912</v>
+        <v>41.60289930354639</v>
       </c>
       <c r="K13" t="n">
-        <v>67.56143114685943</v>
+        <v>68.36634346140194</v>
       </c>
       <c r="L13" t="n">
-        <v>86.45537128135678</v>
+        <v>87.48538192236055</v>
       </c>
       <c r="M13" t="n">
-        <v>91.15506707866177</v>
+        <v>92.24106888145178</v>
       </c>
       <c r="N13" t="n">
-        <v>88.9876033251241</v>
+        <v>90.04778243237713</v>
       </c>
       <c r="O13" t="n">
-        <v>82.19445473171918</v>
+        <v>83.17370173222832</v>
       </c>
       <c r="P13" t="n">
-        <v>70.33155555381985</v>
+        <v>71.16947053290228</v>
       </c>
       <c r="Q13" t="n">
-        <v>48.69392349716139</v>
+        <v>49.2740523961638</v>
       </c>
       <c r="R13" t="n">
-        <v>26.14701396340898</v>
+        <v>26.45852384664272</v>
       </c>
       <c r="S13" t="n">
-        <v>10.13421467202891</v>
+        <v>10.25495151921029</v>
       </c>
       <c r="T13" t="n">
-        <v>2.484653571128633</v>
+        <v>2.514255197719789</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03171898175908898</v>
+        <v>0.032096874864508</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.296387194173819</v>
+        <v>1.311832071514227</v>
       </c>
       <c r="H14" t="n">
-        <v>13.27662535233262</v>
+        <v>13.43480020239508</v>
       </c>
       <c r="I14" t="n">
-        <v>49.97896730338619</v>
+        <v>50.57440593705229</v>
       </c>
       <c r="J14" t="n">
-        <v>110.0292426215102</v>
+        <v>111.3401072796808</v>
       </c>
       <c r="K14" t="n">
-        <v>164.905312550888</v>
+        <v>166.869958866878</v>
       </c>
       <c r="L14" t="n">
-        <v>204.5796221445851</v>
+        <v>207.0169396254816</v>
       </c>
       <c r="M14" t="n">
-        <v>227.6342479089737</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N14" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O14" t="n">
-        <v>218.4266578623542</v>
+        <v>221.0289459393429</v>
       </c>
       <c r="P14" t="n">
-        <v>186.422099006188</v>
+        <v>188.6430916738354</v>
       </c>
       <c r="Q14" t="n">
-        <v>139.995232614838</v>
+        <v>141.6631056127321</v>
       </c>
       <c r="R14" t="n">
-        <v>81.43418208602121</v>
+        <v>82.40437136225565</v>
       </c>
       <c r="S14" t="n">
-        <v>29.54142318723592</v>
+        <v>29.89337332963048</v>
       </c>
       <c r="T14" t="n">
-        <v>5.674934942495894</v>
+        <v>5.742544893053533</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1037109755339055</v>
+        <v>0.1049465657211382</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,19 +32068,19 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6936282992223414</v>
+        <v>0.7018920371314099</v>
       </c>
       <c r="H15" t="n">
-        <v>6.698989100384193</v>
+        <v>6.778799411242828</v>
       </c>
       <c r="I15" t="n">
-        <v>23.88150065304992</v>
+        <v>24.16601969948056</v>
       </c>
       <c r="J15" t="n">
-        <v>65.5326631295985</v>
+        <v>66.31340513968291</v>
       </c>
       <c r="K15" t="n">
-        <v>112.0057591774954</v>
+        <v>113.3401716274874</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
@@ -32093,22 +32095,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>132.4525828576417</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.54104394985538</v>
+        <v>89.59590284505508</v>
       </c>
       <c r="R15" t="n">
-        <v>43.06579913943627</v>
+        <v>43.57887577908878</v>
       </c>
       <c r="S15" t="n">
-        <v>12.88384143511673</v>
+        <v>13.03733674233122</v>
       </c>
       <c r="T15" t="n">
-        <v>2.795808802567243</v>
+        <v>2.829117465455112</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04563344073831195</v>
+        <v>0.04617710770601383</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5815146655832973</v>
+        <v>0.5884427058493126</v>
       </c>
       <c r="H16" t="n">
-        <v>5.170194026731502</v>
+        <v>5.231790602914801</v>
       </c>
       <c r="I16" t="n">
-        <v>17.48773194317771</v>
+        <v>17.69607700863206</v>
       </c>
       <c r="J16" t="n">
-        <v>41.11308685673912</v>
+        <v>41.60289930354639</v>
       </c>
       <c r="K16" t="n">
-        <v>67.56143114685943</v>
+        <v>68.36634346140194</v>
       </c>
       <c r="L16" t="n">
-        <v>86.45537128135678</v>
+        <v>87.48538192236053</v>
       </c>
       <c r="M16" t="n">
-        <v>91.15506707866177</v>
+        <v>92.24106888145177</v>
       </c>
       <c r="N16" t="n">
-        <v>88.9876033251241</v>
+        <v>90.04778243237713</v>
       </c>
       <c r="O16" t="n">
-        <v>82.19445473171918</v>
+        <v>83.17370173222832</v>
       </c>
       <c r="P16" t="n">
-        <v>70.33155555381985</v>
+        <v>71.16947053290228</v>
       </c>
       <c r="Q16" t="n">
-        <v>48.69392349716139</v>
+        <v>49.2740523961638</v>
       </c>
       <c r="R16" t="n">
-        <v>26.14701396340898</v>
+        <v>26.45852384664272</v>
       </c>
       <c r="S16" t="n">
-        <v>10.13421467202891</v>
+        <v>10.25495151921029</v>
       </c>
       <c r="T16" t="n">
-        <v>2.484653571128633</v>
+        <v>2.514255197719789</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03171898175908898</v>
+        <v>0.032096874864508</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.296387194173819</v>
+        <v>1.311832071514227</v>
       </c>
       <c r="H17" t="n">
-        <v>13.27662535233262</v>
+        <v>13.43480020239508</v>
       </c>
       <c r="I17" t="n">
-        <v>49.97896730338619</v>
+        <v>50.57440593705229</v>
       </c>
       <c r="J17" t="n">
-        <v>110.0292426215102</v>
+        <v>111.3401072796808</v>
       </c>
       <c r="K17" t="n">
-        <v>164.905312550888</v>
+        <v>166.869958866878</v>
       </c>
       <c r="L17" t="n">
-        <v>204.5796221445851</v>
+        <v>207.0169396254816</v>
       </c>
       <c r="M17" t="n">
-        <v>227.6342479089737</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N17" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O17" t="n">
-        <v>218.4266578623542</v>
+        <v>221.0289459393429</v>
       </c>
       <c r="P17" t="n">
-        <v>186.422099006188</v>
+        <v>188.6430916738354</v>
       </c>
       <c r="Q17" t="n">
-        <v>139.995232614838</v>
+        <v>141.6631056127321</v>
       </c>
       <c r="R17" t="n">
-        <v>81.43418208602121</v>
+        <v>82.40437136225565</v>
       </c>
       <c r="S17" t="n">
-        <v>29.54142318723592</v>
+        <v>29.89337332963048</v>
       </c>
       <c r="T17" t="n">
-        <v>5.674934942495894</v>
+        <v>5.742544893053533</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1037109755339055</v>
+        <v>0.1049465657211382</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,19 +32305,19 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6936282992223414</v>
+        <v>0.7018920371314099</v>
       </c>
       <c r="H18" t="n">
-        <v>6.698989100384193</v>
+        <v>6.778799411242828</v>
       </c>
       <c r="I18" t="n">
-        <v>23.88150065304992</v>
+        <v>24.16601969948056</v>
       </c>
       <c r="J18" t="n">
-        <v>65.5326631295985</v>
+        <v>66.31340513968291</v>
       </c>
       <c r="K18" t="n">
-        <v>112.0057591774954</v>
+        <v>113.3401716274874</v>
       </c>
       <c r="L18" t="n">
         <v>138.5543797798742</v>
@@ -32330,22 +32332,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>132.4525828576417</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.54104394985538</v>
+        <v>89.59590284505508</v>
       </c>
       <c r="R18" t="n">
-        <v>43.06579913943627</v>
+        <v>43.57887577908878</v>
       </c>
       <c r="S18" t="n">
-        <v>12.88384143511673</v>
+        <v>13.03733674233122</v>
       </c>
       <c r="T18" t="n">
-        <v>2.795808802567243</v>
+        <v>2.829117465455112</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04563344073831195</v>
+        <v>0.04617710770601383</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5815146655832973</v>
+        <v>0.5884427058493126</v>
       </c>
       <c r="H19" t="n">
-        <v>5.170194026731502</v>
+        <v>5.231790602914801</v>
       </c>
       <c r="I19" t="n">
-        <v>17.48773194317771</v>
+        <v>17.69607700863206</v>
       </c>
       <c r="J19" t="n">
-        <v>41.11308685673912</v>
+        <v>41.60289930354639</v>
       </c>
       <c r="K19" t="n">
-        <v>67.56143114685943</v>
+        <v>68.36634346140194</v>
       </c>
       <c r="L19" t="n">
-        <v>86.45537128135678</v>
+        <v>87.48538192236053</v>
       </c>
       <c r="M19" t="n">
-        <v>91.15506707866177</v>
+        <v>92.24106888145177</v>
       </c>
       <c r="N19" t="n">
-        <v>88.9876033251241</v>
+        <v>90.04778243237713</v>
       </c>
       <c r="O19" t="n">
-        <v>82.19445473171918</v>
+        <v>83.17370173222832</v>
       </c>
       <c r="P19" t="n">
-        <v>70.33155555381985</v>
+        <v>71.16947053290228</v>
       </c>
       <c r="Q19" t="n">
-        <v>48.69392349716139</v>
+        <v>49.2740523961638</v>
       </c>
       <c r="R19" t="n">
-        <v>26.14701396340898</v>
+        <v>26.45852384664272</v>
       </c>
       <c r="S19" t="n">
-        <v>10.13421467202891</v>
+        <v>10.25495151921029</v>
       </c>
       <c r="T19" t="n">
-        <v>2.484653571128633</v>
+        <v>2.514255197719789</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03171898175908898</v>
+        <v>0.032096874864508</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.296387194173819</v>
+        <v>1.311832071514227</v>
       </c>
       <c r="H20" t="n">
-        <v>13.27662535233262</v>
+        <v>13.43480020239508</v>
       </c>
       <c r="I20" t="n">
-        <v>49.97896730338619</v>
+        <v>50.57440593705229</v>
       </c>
       <c r="J20" t="n">
-        <v>110.0292426215102</v>
+        <v>111.3401072796808</v>
       </c>
       <c r="K20" t="n">
-        <v>164.905312550888</v>
+        <v>166.869958866878</v>
       </c>
       <c r="L20" t="n">
-        <v>204.5796221445851</v>
+        <v>207.0169396254816</v>
       </c>
       <c r="M20" t="n">
-        <v>227.6342479089737</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N20" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O20" t="n">
-        <v>218.4266578623542</v>
+        <v>221.0289459393429</v>
       </c>
       <c r="P20" t="n">
-        <v>186.422099006188</v>
+        <v>188.6430916738354</v>
       </c>
       <c r="Q20" t="n">
-        <v>139.995232614838</v>
+        <v>141.6631056127321</v>
       </c>
       <c r="R20" t="n">
-        <v>81.43418208602121</v>
+        <v>82.40437136225565</v>
       </c>
       <c r="S20" t="n">
-        <v>29.54142318723592</v>
+        <v>29.89337332963048</v>
       </c>
       <c r="T20" t="n">
-        <v>5.674934942495894</v>
+        <v>5.742544893053533</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1037109755339055</v>
+        <v>0.1049465657211382</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,19 +32542,19 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6936282992223414</v>
+        <v>0.7018920371314099</v>
       </c>
       <c r="H21" t="n">
-        <v>6.698989100384193</v>
+        <v>6.778799411242828</v>
       </c>
       <c r="I21" t="n">
-        <v>23.88150065304992</v>
+        <v>24.16601969948056</v>
       </c>
       <c r="J21" t="n">
-        <v>65.5326631295985</v>
+        <v>66.31340513968291</v>
       </c>
       <c r="K21" t="n">
-        <v>112.0057591774954</v>
+        <v>113.3401716274874</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
@@ -32567,22 +32569,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>132.4525828576417</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.54104394985538</v>
+        <v>89.59590284505508</v>
       </c>
       <c r="R21" t="n">
-        <v>43.06579913943627</v>
+        <v>43.57887577908878</v>
       </c>
       <c r="S21" t="n">
-        <v>12.88384143511673</v>
+        <v>13.03733674233122</v>
       </c>
       <c r="T21" t="n">
-        <v>2.795808802567243</v>
+        <v>2.829117465455112</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04563344073831195</v>
+        <v>0.04617710770601383</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5815146655832973</v>
+        <v>0.5884427058493126</v>
       </c>
       <c r="H22" t="n">
-        <v>5.170194026731502</v>
+        <v>5.231790602914801</v>
       </c>
       <c r="I22" t="n">
-        <v>17.48773194317771</v>
+        <v>17.69607700863206</v>
       </c>
       <c r="J22" t="n">
-        <v>41.11308685673912</v>
+        <v>41.60289930354639</v>
       </c>
       <c r="K22" t="n">
-        <v>67.56143114685943</v>
+        <v>68.36634346140194</v>
       </c>
       <c r="L22" t="n">
-        <v>86.45537128135678</v>
+        <v>87.48538192236053</v>
       </c>
       <c r="M22" t="n">
-        <v>91.15506707866177</v>
+        <v>92.24106888145177</v>
       </c>
       <c r="N22" t="n">
-        <v>88.9876033251241</v>
+        <v>90.04778243237713</v>
       </c>
       <c r="O22" t="n">
-        <v>82.19445473171918</v>
+        <v>83.17370173222832</v>
       </c>
       <c r="P22" t="n">
-        <v>70.33155555381985</v>
+        <v>71.16947053290228</v>
       </c>
       <c r="Q22" t="n">
-        <v>48.69392349716139</v>
+        <v>49.2740523961638</v>
       </c>
       <c r="R22" t="n">
-        <v>26.14701396340898</v>
+        <v>26.45852384664272</v>
       </c>
       <c r="S22" t="n">
-        <v>10.13421467202891</v>
+        <v>10.25495151921029</v>
       </c>
       <c r="T22" t="n">
-        <v>2.484653571128633</v>
+        <v>2.514255197719789</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03171898175908898</v>
+        <v>0.032096874864508</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.296387194173819</v>
+        <v>1.311832071514227</v>
       </c>
       <c r="H23" t="n">
-        <v>13.27662535233262</v>
+        <v>13.43480020239508</v>
       </c>
       <c r="I23" t="n">
-        <v>49.97896730338619</v>
+        <v>50.57440593705229</v>
       </c>
       <c r="J23" t="n">
-        <v>110.0292426215102</v>
+        <v>111.3401072796808</v>
       </c>
       <c r="K23" t="n">
-        <v>164.905312550888</v>
+        <v>166.869958866878</v>
       </c>
       <c r="L23" t="n">
-        <v>204.5796221445851</v>
+        <v>207.0169396254816</v>
       </c>
       <c r="M23" t="n">
-        <v>227.6342479089737</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N23" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O23" t="n">
-        <v>218.4266578623542</v>
+        <v>221.0289459393429</v>
       </c>
       <c r="P23" t="n">
-        <v>186.422099006188</v>
+        <v>188.6430916738354</v>
       </c>
       <c r="Q23" t="n">
-        <v>139.995232614838</v>
+        <v>141.6631056127321</v>
       </c>
       <c r="R23" t="n">
-        <v>81.43418208602121</v>
+        <v>82.40437136225565</v>
       </c>
       <c r="S23" t="n">
-        <v>29.54142318723592</v>
+        <v>29.89337332963048</v>
       </c>
       <c r="T23" t="n">
-        <v>5.674934942495894</v>
+        <v>5.742544893053533</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1037109755339055</v>
+        <v>0.1049465657211382</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,19 +32779,19 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6936282992223414</v>
+        <v>0.7018920371314099</v>
       </c>
       <c r="H24" t="n">
-        <v>6.698989100384193</v>
+        <v>6.778799411242828</v>
       </c>
       <c r="I24" t="n">
-        <v>23.88150065304992</v>
+        <v>24.16601969948056</v>
       </c>
       <c r="J24" t="n">
-        <v>65.5326631295985</v>
+        <v>66.31340513968291</v>
       </c>
       <c r="K24" t="n">
-        <v>112.0057591774954</v>
+        <v>113.3401716274874</v>
       </c>
       <c r="L24" t="n">
         <v>138.5543797798742</v>
@@ -32804,22 +32806,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>132.4525828576417</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.54104394985538</v>
+        <v>89.59590284505508</v>
       </c>
       <c r="R24" t="n">
-        <v>43.06579913943627</v>
+        <v>43.57887577908878</v>
       </c>
       <c r="S24" t="n">
-        <v>12.88384143511673</v>
+        <v>13.03733674233122</v>
       </c>
       <c r="T24" t="n">
-        <v>2.795808802567243</v>
+        <v>2.829117465455112</v>
       </c>
       <c r="U24" t="n">
-        <v>0.04563344073831195</v>
+        <v>0.04617710770601383</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5815146655832973</v>
+        <v>0.5884427058493126</v>
       </c>
       <c r="H25" t="n">
-        <v>5.170194026731502</v>
+        <v>5.231790602914801</v>
       </c>
       <c r="I25" t="n">
-        <v>17.48773194317771</v>
+        <v>17.69607700863206</v>
       </c>
       <c r="J25" t="n">
-        <v>41.11308685673912</v>
+        <v>41.60289930354639</v>
       </c>
       <c r="K25" t="n">
-        <v>67.56143114685943</v>
+        <v>68.36634346140194</v>
       </c>
       <c r="L25" t="n">
-        <v>86.45537128135678</v>
+        <v>87.48538192236053</v>
       </c>
       <c r="M25" t="n">
-        <v>91.15506707866177</v>
+        <v>92.24106888145177</v>
       </c>
       <c r="N25" t="n">
-        <v>88.9876033251241</v>
+        <v>90.04778243237713</v>
       </c>
       <c r="O25" t="n">
-        <v>82.19445473171918</v>
+        <v>83.17370173222832</v>
       </c>
       <c r="P25" t="n">
-        <v>70.33155555381985</v>
+        <v>71.16947053290228</v>
       </c>
       <c r="Q25" t="n">
-        <v>48.69392349716139</v>
+        <v>49.2740523961638</v>
       </c>
       <c r="R25" t="n">
-        <v>26.14701396340898</v>
+        <v>26.45852384664272</v>
       </c>
       <c r="S25" t="n">
-        <v>10.13421467202891</v>
+        <v>10.25495151921029</v>
       </c>
       <c r="T25" t="n">
-        <v>2.484653571128633</v>
+        <v>2.514255197719789</v>
       </c>
       <c r="U25" t="n">
-        <v>0.03171898175908898</v>
+        <v>0.032096874864508</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.296387194173819</v>
+        <v>1.311832071514227</v>
       </c>
       <c r="H26" t="n">
-        <v>13.27662535233262</v>
+        <v>13.43480020239508</v>
       </c>
       <c r="I26" t="n">
-        <v>49.97896730338619</v>
+        <v>50.57440593705229</v>
       </c>
       <c r="J26" t="n">
-        <v>110.0292426215102</v>
+        <v>111.3401072796808</v>
       </c>
       <c r="K26" t="n">
-        <v>164.905312550888</v>
+        <v>166.869958866878</v>
       </c>
       <c r="L26" t="n">
-        <v>204.5796221445851</v>
+        <v>207.0169396254816</v>
       </c>
       <c r="M26" t="n">
-        <v>227.6342479089737</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N26" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O26" t="n">
-        <v>218.4266578623542</v>
+        <v>221.0289459393429</v>
       </c>
       <c r="P26" t="n">
-        <v>186.422099006188</v>
+        <v>188.6430916738354</v>
       </c>
       <c r="Q26" t="n">
-        <v>139.995232614838</v>
+        <v>141.6631056127321</v>
       </c>
       <c r="R26" t="n">
-        <v>81.43418208602121</v>
+        <v>82.40437136225565</v>
       </c>
       <c r="S26" t="n">
-        <v>29.54142318723592</v>
+        <v>29.89337332963048</v>
       </c>
       <c r="T26" t="n">
-        <v>5.674934942495894</v>
+        <v>5.742544893053533</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1037109755339055</v>
+        <v>0.1049465657211382</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,19 +33016,19 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6936282992223414</v>
+        <v>0.7018920371314099</v>
       </c>
       <c r="H27" t="n">
-        <v>6.698989100384193</v>
+        <v>6.778799411242828</v>
       </c>
       <c r="I27" t="n">
-        <v>23.88150065304992</v>
+        <v>24.16601969948056</v>
       </c>
       <c r="J27" t="n">
-        <v>65.5326631295985</v>
+        <v>66.31340513968291</v>
       </c>
       <c r="K27" t="n">
-        <v>112.0057591774954</v>
+        <v>113.3401716274874</v>
       </c>
       <c r="L27" t="n">
         <v>138.5543797798742</v>
@@ -33041,22 +33043,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>132.4525828576417</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.54104394985538</v>
+        <v>89.59590284505508</v>
       </c>
       <c r="R27" t="n">
-        <v>43.06579913943627</v>
+        <v>43.57887577908878</v>
       </c>
       <c r="S27" t="n">
-        <v>12.88384143511673</v>
+        <v>13.03733674233122</v>
       </c>
       <c r="T27" t="n">
-        <v>2.795808802567243</v>
+        <v>2.829117465455112</v>
       </c>
       <c r="U27" t="n">
-        <v>0.04563344073831195</v>
+        <v>0.04617710770601383</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5815146655832973</v>
+        <v>0.5884427058493126</v>
       </c>
       <c r="H28" t="n">
-        <v>5.170194026731502</v>
+        <v>5.231790602914801</v>
       </c>
       <c r="I28" t="n">
-        <v>17.48773194317771</v>
+        <v>17.69607700863206</v>
       </c>
       <c r="J28" t="n">
-        <v>41.11308685673912</v>
+        <v>41.60289930354639</v>
       </c>
       <c r="K28" t="n">
-        <v>67.56143114685943</v>
+        <v>68.36634346140194</v>
       </c>
       <c r="L28" t="n">
-        <v>86.45537128135678</v>
+        <v>87.48538192236053</v>
       </c>
       <c r="M28" t="n">
-        <v>91.15506707866177</v>
+        <v>92.24106888145177</v>
       </c>
       <c r="N28" t="n">
-        <v>88.9876033251241</v>
+        <v>90.04778243237713</v>
       </c>
       <c r="O28" t="n">
-        <v>82.19445473171918</v>
+        <v>83.17370173222832</v>
       </c>
       <c r="P28" t="n">
-        <v>70.33155555381985</v>
+        <v>71.16947053290228</v>
       </c>
       <c r="Q28" t="n">
-        <v>48.69392349716139</v>
+        <v>49.2740523961638</v>
       </c>
       <c r="R28" t="n">
-        <v>26.14701396340898</v>
+        <v>26.45852384664272</v>
       </c>
       <c r="S28" t="n">
-        <v>10.13421467202891</v>
+        <v>10.25495151921029</v>
       </c>
       <c r="T28" t="n">
-        <v>2.484653571128633</v>
+        <v>2.514255197719789</v>
       </c>
       <c r="U28" t="n">
-        <v>0.03171898175908898</v>
+        <v>0.032096874864508</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.296387194173819</v>
+        <v>1.311832071514227</v>
       </c>
       <c r="H29" t="n">
-        <v>13.27662535233262</v>
+        <v>13.43480020239508</v>
       </c>
       <c r="I29" t="n">
-        <v>49.97896730338619</v>
+        <v>50.57440593705229</v>
       </c>
       <c r="J29" t="n">
-        <v>110.0292426215102</v>
+        <v>111.3401072796808</v>
       </c>
       <c r="K29" t="n">
-        <v>164.905312550888</v>
+        <v>166.869958866878</v>
       </c>
       <c r="L29" t="n">
-        <v>204.5796221445851</v>
+        <v>207.0169396254816</v>
       </c>
       <c r="M29" t="n">
-        <v>227.6342479089737</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N29" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O29" t="n">
-        <v>218.4266578623542</v>
+        <v>221.0289459393429</v>
       </c>
       <c r="P29" t="n">
-        <v>186.422099006188</v>
+        <v>188.6430916738354</v>
       </c>
       <c r="Q29" t="n">
-        <v>139.995232614838</v>
+        <v>141.6631056127321</v>
       </c>
       <c r="R29" t="n">
-        <v>81.43418208602121</v>
+        <v>82.40437136225565</v>
       </c>
       <c r="S29" t="n">
-        <v>29.54142318723592</v>
+        <v>29.89337332963048</v>
       </c>
       <c r="T29" t="n">
-        <v>5.674934942495894</v>
+        <v>5.742544893053533</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1037109755339055</v>
+        <v>0.1049465657211382</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,19 +33253,19 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.6936282992223414</v>
+        <v>0.7018920371314099</v>
       </c>
       <c r="H30" t="n">
-        <v>6.698989100384193</v>
+        <v>6.778799411242828</v>
       </c>
       <c r="I30" t="n">
-        <v>23.88150065304992</v>
+        <v>24.16601969948056</v>
       </c>
       <c r="J30" t="n">
-        <v>65.5326631295985</v>
+        <v>66.31340513968291</v>
       </c>
       <c r="K30" t="n">
-        <v>112.0057591774954</v>
+        <v>113.3401716274874</v>
       </c>
       <c r="L30" t="n">
         <v>138.5543797798742</v>
@@ -33278,22 +33280,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>132.4525828576417</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.54104394985538</v>
+        <v>89.59590284505508</v>
       </c>
       <c r="R30" t="n">
-        <v>43.06579913943627</v>
+        <v>43.57887577908878</v>
       </c>
       <c r="S30" t="n">
-        <v>12.88384143511673</v>
+        <v>13.03733674233122</v>
       </c>
       <c r="T30" t="n">
-        <v>2.795808802567243</v>
+        <v>2.829117465455112</v>
       </c>
       <c r="U30" t="n">
-        <v>0.04563344073831195</v>
+        <v>0.04617710770601383</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5815146655832973</v>
+        <v>0.5884427058493126</v>
       </c>
       <c r="H31" t="n">
-        <v>5.170194026731502</v>
+        <v>5.231790602914801</v>
       </c>
       <c r="I31" t="n">
-        <v>17.48773194317771</v>
+        <v>17.69607700863206</v>
       </c>
       <c r="J31" t="n">
-        <v>41.11308685673912</v>
+        <v>41.60289930354639</v>
       </c>
       <c r="K31" t="n">
-        <v>67.56143114685943</v>
+        <v>68.36634346140194</v>
       </c>
       <c r="L31" t="n">
-        <v>86.45537128135678</v>
+        <v>87.48538192236053</v>
       </c>
       <c r="M31" t="n">
-        <v>91.15506707866177</v>
+        <v>92.24106888145177</v>
       </c>
       <c r="N31" t="n">
-        <v>88.9876033251241</v>
+        <v>90.04778243237713</v>
       </c>
       <c r="O31" t="n">
-        <v>82.19445473171918</v>
+        <v>83.17370173222832</v>
       </c>
       <c r="P31" t="n">
-        <v>70.33155555381985</v>
+        <v>71.16947053290228</v>
       </c>
       <c r="Q31" t="n">
-        <v>48.69392349716139</v>
+        <v>49.2740523961638</v>
       </c>
       <c r="R31" t="n">
-        <v>26.14701396340898</v>
+        <v>26.45852384664272</v>
       </c>
       <c r="S31" t="n">
-        <v>10.13421467202891</v>
+        <v>10.25495151921029</v>
       </c>
       <c r="T31" t="n">
-        <v>2.484653571128633</v>
+        <v>2.514255197719789</v>
       </c>
       <c r="U31" t="n">
-        <v>0.03171898175908898</v>
+        <v>0.032096874864508</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.296387194173819</v>
+        <v>1.311832071514227</v>
       </c>
       <c r="H32" t="n">
-        <v>13.27662535233262</v>
+        <v>13.43480020239508</v>
       </c>
       <c r="I32" t="n">
-        <v>49.97896730338619</v>
+        <v>50.57440593705229</v>
       </c>
       <c r="J32" t="n">
-        <v>110.0292426215102</v>
+        <v>111.3401072796808</v>
       </c>
       <c r="K32" t="n">
-        <v>164.905312550888</v>
+        <v>166.869958866878</v>
       </c>
       <c r="L32" t="n">
-        <v>204.5796221445851</v>
+        <v>207.0169396254816</v>
       </c>
       <c r="M32" t="n">
-        <v>227.6342479089737</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N32" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O32" t="n">
-        <v>218.4266578623542</v>
+        <v>221.0289459393429</v>
       </c>
       <c r="P32" t="n">
-        <v>186.422099006188</v>
+        <v>188.6430916738354</v>
       </c>
       <c r="Q32" t="n">
-        <v>139.995232614838</v>
+        <v>141.6631056127321</v>
       </c>
       <c r="R32" t="n">
-        <v>81.43418208602121</v>
+        <v>82.40437136225565</v>
       </c>
       <c r="S32" t="n">
-        <v>29.54142318723592</v>
+        <v>29.89337332963048</v>
       </c>
       <c r="T32" t="n">
-        <v>5.674934942495894</v>
+        <v>5.742544893053533</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1037109755339055</v>
+        <v>0.1049465657211382</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,19 +33490,19 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.6936282992223414</v>
+        <v>0.7018920371314099</v>
       </c>
       <c r="H33" t="n">
-        <v>6.698989100384193</v>
+        <v>6.778799411242828</v>
       </c>
       <c r="I33" t="n">
-        <v>23.88150065304992</v>
+        <v>24.16601969948056</v>
       </c>
       <c r="J33" t="n">
-        <v>65.5326631295985</v>
+        <v>66.31340513968291</v>
       </c>
       <c r="K33" t="n">
-        <v>112.0057591774954</v>
+        <v>113.3401716274874</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
@@ -33515,22 +33517,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>132.4525828576417</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.54104394985538</v>
+        <v>89.59590284505508</v>
       </c>
       <c r="R33" t="n">
-        <v>43.06579913943627</v>
+        <v>43.57887577908878</v>
       </c>
       <c r="S33" t="n">
-        <v>12.88384143511673</v>
+        <v>13.03733674233122</v>
       </c>
       <c r="T33" t="n">
-        <v>2.795808802567243</v>
+        <v>2.829117465455112</v>
       </c>
       <c r="U33" t="n">
-        <v>0.04563344073831195</v>
+        <v>0.04617710770601383</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5815146655832973</v>
+        <v>0.5884427058493126</v>
       </c>
       <c r="H34" t="n">
-        <v>5.170194026731502</v>
+        <v>5.231790602914801</v>
       </c>
       <c r="I34" t="n">
-        <v>17.48773194317771</v>
+        <v>17.69607700863206</v>
       </c>
       <c r="J34" t="n">
-        <v>41.11308685673912</v>
+        <v>41.60289930354639</v>
       </c>
       <c r="K34" t="n">
-        <v>67.56143114685943</v>
+        <v>68.36634346140194</v>
       </c>
       <c r="L34" t="n">
-        <v>86.45537128135678</v>
+        <v>87.48538192236053</v>
       </c>
       <c r="M34" t="n">
-        <v>91.15506707866177</v>
+        <v>92.24106888145177</v>
       </c>
       <c r="N34" t="n">
-        <v>88.9876033251241</v>
+        <v>90.04778243237713</v>
       </c>
       <c r="O34" t="n">
-        <v>82.19445473171918</v>
+        <v>83.17370173222832</v>
       </c>
       <c r="P34" t="n">
-        <v>70.33155555381985</v>
+        <v>71.16947053290228</v>
       </c>
       <c r="Q34" t="n">
-        <v>48.69392349716139</v>
+        <v>49.2740523961638</v>
       </c>
       <c r="R34" t="n">
-        <v>26.14701396340898</v>
+        <v>26.45852384664272</v>
       </c>
       <c r="S34" t="n">
-        <v>10.13421467202891</v>
+        <v>10.25495151921029</v>
       </c>
       <c r="T34" t="n">
-        <v>2.484653571128633</v>
+        <v>2.514255197719789</v>
       </c>
       <c r="U34" t="n">
-        <v>0.03171898175908898</v>
+        <v>0.032096874864508</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.296387194173819</v>
+        <v>1.311832071514227</v>
       </c>
       <c r="H35" t="n">
-        <v>13.27662535233262</v>
+        <v>13.43480020239508</v>
       </c>
       <c r="I35" t="n">
-        <v>49.97896730338619</v>
+        <v>50.57440593705229</v>
       </c>
       <c r="J35" t="n">
-        <v>110.0292426215102</v>
+        <v>111.3401072796808</v>
       </c>
       <c r="K35" t="n">
-        <v>164.905312550888</v>
+        <v>166.869958866878</v>
       </c>
       <c r="L35" t="n">
-        <v>204.5796221445851</v>
+        <v>207.0169396254816</v>
       </c>
       <c r="M35" t="n">
-        <v>227.6342479089737</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N35" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O35" t="n">
-        <v>218.4266578623542</v>
+        <v>221.0289459393429</v>
       </c>
       <c r="P35" t="n">
-        <v>186.422099006188</v>
+        <v>188.6430916738354</v>
       </c>
       <c r="Q35" t="n">
-        <v>139.995232614838</v>
+        <v>141.6631056127321</v>
       </c>
       <c r="R35" t="n">
-        <v>81.43418208602121</v>
+        <v>82.40437136225565</v>
       </c>
       <c r="S35" t="n">
-        <v>29.54142318723592</v>
+        <v>29.89337332963048</v>
       </c>
       <c r="T35" t="n">
-        <v>5.674934942495894</v>
+        <v>5.742544893053533</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1037109755339055</v>
+        <v>0.1049465657211382</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,19 +33727,19 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.6936282992223414</v>
+        <v>0.7018920371314099</v>
       </c>
       <c r="H36" t="n">
-        <v>6.698989100384193</v>
+        <v>6.778799411242828</v>
       </c>
       <c r="I36" t="n">
-        <v>23.88150065304992</v>
+        <v>24.16601969948056</v>
       </c>
       <c r="J36" t="n">
-        <v>65.5326631295985</v>
+        <v>66.31340513968291</v>
       </c>
       <c r="K36" t="n">
-        <v>112.0057591774954</v>
+        <v>113.3401716274874</v>
       </c>
       <c r="L36" t="n">
         <v>138.5543797798742</v>
@@ -33752,22 +33754,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>132.4525828576417</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.54104394985538</v>
+        <v>89.59590284505508</v>
       </c>
       <c r="R36" t="n">
-        <v>43.06579913943627</v>
+        <v>43.57887577908878</v>
       </c>
       <c r="S36" t="n">
-        <v>12.88384143511673</v>
+        <v>13.03733674233122</v>
       </c>
       <c r="T36" t="n">
-        <v>2.795808802567243</v>
+        <v>2.829117465455112</v>
       </c>
       <c r="U36" t="n">
-        <v>0.04563344073831195</v>
+        <v>0.04617710770601383</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5815146655832973</v>
+        <v>0.5884427058493126</v>
       </c>
       <c r="H37" t="n">
-        <v>5.170194026731502</v>
+        <v>5.231790602914801</v>
       </c>
       <c r="I37" t="n">
-        <v>17.48773194317771</v>
+        <v>17.69607700863206</v>
       </c>
       <c r="J37" t="n">
-        <v>41.11308685673912</v>
+        <v>41.60289930354639</v>
       </c>
       <c r="K37" t="n">
-        <v>67.56143114685943</v>
+        <v>68.36634346140194</v>
       </c>
       <c r="L37" t="n">
-        <v>86.45537128135678</v>
+        <v>87.48538192236053</v>
       </c>
       <c r="M37" t="n">
-        <v>91.15506707866177</v>
+        <v>92.24106888145177</v>
       </c>
       <c r="N37" t="n">
-        <v>88.9876033251241</v>
+        <v>90.04778243237713</v>
       </c>
       <c r="O37" t="n">
-        <v>82.19445473171918</v>
+        <v>83.17370173222832</v>
       </c>
       <c r="P37" t="n">
-        <v>70.33155555381985</v>
+        <v>71.16947053290228</v>
       </c>
       <c r="Q37" t="n">
-        <v>48.69392349716139</v>
+        <v>49.2740523961638</v>
       </c>
       <c r="R37" t="n">
-        <v>26.14701396340898</v>
+        <v>26.45852384664272</v>
       </c>
       <c r="S37" t="n">
-        <v>10.13421467202891</v>
+        <v>10.25495151921029</v>
       </c>
       <c r="T37" t="n">
-        <v>2.484653571128633</v>
+        <v>2.514255197719789</v>
       </c>
       <c r="U37" t="n">
-        <v>0.03171898175908898</v>
+        <v>0.032096874864508</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.296387194173819</v>
+        <v>1.311832071514227</v>
       </c>
       <c r="H38" t="n">
-        <v>13.27662535233262</v>
+        <v>13.43480020239508</v>
       </c>
       <c r="I38" t="n">
-        <v>49.97896730338619</v>
+        <v>50.57440593705229</v>
       </c>
       <c r="J38" t="n">
-        <v>110.0292426215102</v>
+        <v>111.3401072796808</v>
       </c>
       <c r="K38" t="n">
-        <v>164.905312550888</v>
+        <v>166.869958866878</v>
       </c>
       <c r="L38" t="n">
-        <v>204.5796221445851</v>
+        <v>207.0169396254816</v>
       </c>
       <c r="M38" t="n">
-        <v>227.6342479089737</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N38" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O38" t="n">
-        <v>218.4266578623542</v>
+        <v>221.0289459393429</v>
       </c>
       <c r="P38" t="n">
-        <v>186.422099006188</v>
+        <v>188.6430916738354</v>
       </c>
       <c r="Q38" t="n">
-        <v>139.995232614838</v>
+        <v>141.6631056127321</v>
       </c>
       <c r="R38" t="n">
-        <v>81.43418208602121</v>
+        <v>82.40437136225565</v>
       </c>
       <c r="S38" t="n">
-        <v>29.54142318723592</v>
+        <v>29.89337332963048</v>
       </c>
       <c r="T38" t="n">
-        <v>5.674934942495894</v>
+        <v>5.742544893053533</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1037109755339055</v>
+        <v>0.1049465657211382</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,19 +33964,19 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6936282992223414</v>
+        <v>0.7018920371314099</v>
       </c>
       <c r="H39" t="n">
-        <v>6.698989100384193</v>
+        <v>6.778799411242828</v>
       </c>
       <c r="I39" t="n">
-        <v>23.88150065304992</v>
+        <v>24.16601969948056</v>
       </c>
       <c r="J39" t="n">
-        <v>65.5326631295985</v>
+        <v>66.31340513968291</v>
       </c>
       <c r="K39" t="n">
-        <v>112.0057591774954</v>
+        <v>113.3401716274874</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
@@ -33989,22 +33991,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>132.4525828576417</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.54104394985538</v>
+        <v>89.59590284505508</v>
       </c>
       <c r="R39" t="n">
-        <v>43.06579913943627</v>
+        <v>43.57887577908878</v>
       </c>
       <c r="S39" t="n">
-        <v>12.88384143511673</v>
+        <v>13.03733674233122</v>
       </c>
       <c r="T39" t="n">
-        <v>2.795808802567243</v>
+        <v>2.829117465455112</v>
       </c>
       <c r="U39" t="n">
-        <v>0.04563344073831195</v>
+        <v>0.04617710770601383</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5815146655832973</v>
+        <v>0.5884427058493126</v>
       </c>
       <c r="H40" t="n">
-        <v>5.170194026731502</v>
+        <v>5.231790602914801</v>
       </c>
       <c r="I40" t="n">
-        <v>17.48773194317771</v>
+        <v>17.69607700863206</v>
       </c>
       <c r="J40" t="n">
-        <v>41.11308685673912</v>
+        <v>41.60289930354639</v>
       </c>
       <c r="K40" t="n">
-        <v>67.56143114685943</v>
+        <v>68.36634346140194</v>
       </c>
       <c r="L40" t="n">
-        <v>86.45537128135678</v>
+        <v>87.48538192236053</v>
       </c>
       <c r="M40" t="n">
-        <v>91.15506707866177</v>
+        <v>92.24106888145177</v>
       </c>
       <c r="N40" t="n">
-        <v>88.9876033251241</v>
+        <v>90.04778243237713</v>
       </c>
       <c r="O40" t="n">
-        <v>82.19445473171918</v>
+        <v>83.17370173222832</v>
       </c>
       <c r="P40" t="n">
-        <v>70.33155555381985</v>
+        <v>71.16947053290228</v>
       </c>
       <c r="Q40" t="n">
-        <v>48.69392349716139</v>
+        <v>49.2740523961638</v>
       </c>
       <c r="R40" t="n">
-        <v>26.14701396340898</v>
+        <v>26.45852384664272</v>
       </c>
       <c r="S40" t="n">
-        <v>10.13421467202891</v>
+        <v>10.25495151921029</v>
       </c>
       <c r="T40" t="n">
-        <v>2.484653571128633</v>
+        <v>2.514255197719789</v>
       </c>
       <c r="U40" t="n">
-        <v>0.03171898175908898</v>
+        <v>0.032096874864508</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.296387194173819</v>
+        <v>1.311832071514227</v>
       </c>
       <c r="H41" t="n">
-        <v>13.27662535233262</v>
+        <v>13.43480020239508</v>
       </c>
       <c r="I41" t="n">
-        <v>49.97896730338619</v>
+        <v>50.57440593705229</v>
       </c>
       <c r="J41" t="n">
-        <v>110.0292426215102</v>
+        <v>111.3401072796808</v>
       </c>
       <c r="K41" t="n">
-        <v>164.905312550888</v>
+        <v>166.869958866878</v>
       </c>
       <c r="L41" t="n">
-        <v>204.5796221445851</v>
+        <v>207.0169396254816</v>
       </c>
       <c r="M41" t="n">
-        <v>227.6342479089737</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N41" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O41" t="n">
-        <v>218.4266578623542</v>
+        <v>221.0289459393429</v>
       </c>
       <c r="P41" t="n">
-        <v>186.422099006188</v>
+        <v>188.6430916738354</v>
       </c>
       <c r="Q41" t="n">
-        <v>139.995232614838</v>
+        <v>141.6631056127321</v>
       </c>
       <c r="R41" t="n">
-        <v>81.43418208602121</v>
+        <v>82.40437136225565</v>
       </c>
       <c r="S41" t="n">
-        <v>29.54142318723592</v>
+        <v>29.89337332963048</v>
       </c>
       <c r="T41" t="n">
-        <v>5.674934942495894</v>
+        <v>5.742544893053533</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1037109755339055</v>
+        <v>0.1049465657211382</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,19 +34201,19 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6936282992223414</v>
+        <v>0.7018920371314099</v>
       </c>
       <c r="H42" t="n">
-        <v>6.698989100384193</v>
+        <v>6.778799411242828</v>
       </c>
       <c r="I42" t="n">
-        <v>23.88150065304992</v>
+        <v>24.16601969948056</v>
       </c>
       <c r="J42" t="n">
-        <v>65.5326631295985</v>
+        <v>66.31340513968291</v>
       </c>
       <c r="K42" t="n">
-        <v>112.0057591774954</v>
+        <v>113.3401716274874</v>
       </c>
       <c r="L42" t="n">
         <v>138.5543797798742</v>
@@ -34226,22 +34228,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>132.4525828576417</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.54104394985538</v>
+        <v>89.59590284505508</v>
       </c>
       <c r="R42" t="n">
-        <v>43.06579913943627</v>
+        <v>43.57887577908878</v>
       </c>
       <c r="S42" t="n">
-        <v>12.88384143511673</v>
+        <v>13.03733674233122</v>
       </c>
       <c r="T42" t="n">
-        <v>2.795808802567243</v>
+        <v>2.829117465455112</v>
       </c>
       <c r="U42" t="n">
-        <v>0.04563344073831195</v>
+        <v>0.04617710770601383</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5815146655832973</v>
+        <v>0.5884427058493126</v>
       </c>
       <c r="H43" t="n">
-        <v>5.170194026731502</v>
+        <v>5.231790602914801</v>
       </c>
       <c r="I43" t="n">
-        <v>17.48773194317771</v>
+        <v>17.69607700863206</v>
       </c>
       <c r="J43" t="n">
-        <v>41.11308685673912</v>
+        <v>41.60289930354639</v>
       </c>
       <c r="K43" t="n">
-        <v>67.56143114685943</v>
+        <v>68.36634346140194</v>
       </c>
       <c r="L43" t="n">
-        <v>86.45537128135678</v>
+        <v>87.48538192236053</v>
       </c>
       <c r="M43" t="n">
-        <v>91.15506707866177</v>
+        <v>92.24106888145177</v>
       </c>
       <c r="N43" t="n">
-        <v>88.9876033251241</v>
+        <v>90.04778243237713</v>
       </c>
       <c r="O43" t="n">
-        <v>82.19445473171918</v>
+        <v>83.17370173222832</v>
       </c>
       <c r="P43" t="n">
-        <v>70.33155555381985</v>
+        <v>71.16947053290228</v>
       </c>
       <c r="Q43" t="n">
-        <v>48.69392349716139</v>
+        <v>49.2740523961638</v>
       </c>
       <c r="R43" t="n">
-        <v>26.14701396340898</v>
+        <v>26.45852384664272</v>
       </c>
       <c r="S43" t="n">
-        <v>10.13421467202891</v>
+        <v>10.25495151921029</v>
       </c>
       <c r="T43" t="n">
-        <v>2.484653571128633</v>
+        <v>2.514255197719789</v>
       </c>
       <c r="U43" t="n">
-        <v>0.03171898175908898</v>
+        <v>0.032096874864508</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.296387194173819</v>
+        <v>1.311832071514227</v>
       </c>
       <c r="H44" t="n">
-        <v>13.27662535233262</v>
+        <v>13.43480020239508</v>
       </c>
       <c r="I44" t="n">
-        <v>49.97896730338619</v>
+        <v>50.57440593705229</v>
       </c>
       <c r="J44" t="n">
-        <v>110.0292426215102</v>
+        <v>111.3401072796808</v>
       </c>
       <c r="K44" t="n">
-        <v>164.905312550888</v>
+        <v>166.869958866878</v>
       </c>
       <c r="L44" t="n">
-        <v>204.5796221445851</v>
+        <v>207.0169396254816</v>
       </c>
       <c r="M44" t="n">
-        <v>227.6342479089737</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N44" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O44" t="n">
-        <v>218.4266578623542</v>
+        <v>221.0289459393429</v>
       </c>
       <c r="P44" t="n">
-        <v>186.422099006188</v>
+        <v>188.6430916738354</v>
       </c>
       <c r="Q44" t="n">
-        <v>139.995232614838</v>
+        <v>141.6631056127321</v>
       </c>
       <c r="R44" t="n">
-        <v>81.43418208602121</v>
+        <v>82.40437136225565</v>
       </c>
       <c r="S44" t="n">
-        <v>29.54142318723592</v>
+        <v>29.89337332963048</v>
       </c>
       <c r="T44" t="n">
-        <v>5.674934942495894</v>
+        <v>5.742544893053533</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1037109755339055</v>
+        <v>0.1049465657211382</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,19 +34438,19 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.6936282992223414</v>
+        <v>0.7018920371314099</v>
       </c>
       <c r="H45" t="n">
-        <v>6.698989100384193</v>
+        <v>6.778799411242828</v>
       </c>
       <c r="I45" t="n">
-        <v>23.88150065304992</v>
+        <v>24.16601969948056</v>
       </c>
       <c r="J45" t="n">
-        <v>65.5326631295985</v>
+        <v>66.31340513968291</v>
       </c>
       <c r="K45" t="n">
-        <v>112.0057591774954</v>
+        <v>113.3401716274874</v>
       </c>
       <c r="L45" t="n">
         <v>138.5543797798742</v>
@@ -34463,22 +34465,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>132.4525828576417</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.54104394985538</v>
+        <v>89.59590284505508</v>
       </c>
       <c r="R45" t="n">
-        <v>43.06579913943627</v>
+        <v>43.57887577908878</v>
       </c>
       <c r="S45" t="n">
-        <v>12.88384143511673</v>
+        <v>13.03733674233122</v>
       </c>
       <c r="T45" t="n">
-        <v>2.795808802567243</v>
+        <v>2.829117465455112</v>
       </c>
       <c r="U45" t="n">
-        <v>0.04563344073831195</v>
+        <v>0.04617710770601383</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5815146655832973</v>
+        <v>0.5884427058493126</v>
       </c>
       <c r="H46" t="n">
-        <v>5.170194026731502</v>
+        <v>5.231790602914801</v>
       </c>
       <c r="I46" t="n">
-        <v>17.48773194317771</v>
+        <v>17.69607700863206</v>
       </c>
       <c r="J46" t="n">
-        <v>41.11308685673912</v>
+        <v>41.60289930354639</v>
       </c>
       <c r="K46" t="n">
-        <v>67.56143114685943</v>
+        <v>68.36634346140194</v>
       </c>
       <c r="L46" t="n">
-        <v>86.45537128135678</v>
+        <v>87.48538192236053</v>
       </c>
       <c r="M46" t="n">
-        <v>91.15506707866177</v>
+        <v>92.24106888145177</v>
       </c>
       <c r="N46" t="n">
-        <v>88.9876033251241</v>
+        <v>90.04778243237713</v>
       </c>
       <c r="O46" t="n">
-        <v>82.19445473171918</v>
+        <v>83.17370173222832</v>
       </c>
       <c r="P46" t="n">
-        <v>70.33155555381985</v>
+        <v>71.16947053290228</v>
       </c>
       <c r="Q46" t="n">
-        <v>48.69392349716139</v>
+        <v>49.2740523961638</v>
       </c>
       <c r="R46" t="n">
-        <v>26.14701396340898</v>
+        <v>26.45852384664272</v>
       </c>
       <c r="S46" t="n">
-        <v>10.13421467202891</v>
+        <v>10.25495151921029</v>
       </c>
       <c r="T46" t="n">
-        <v>2.484653571128633</v>
+        <v>2.514255197719789</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03171898175908898</v>
+        <v>0.032096874864508</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_24_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_24_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>585876.2939934154</v>
+        <v>503429.6771079077</v>
       </c>
     </row>
     <row r="7">
@@ -8704,13 +8704,13 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>9.069265482343781</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P11" t="n">
         <v>42.58990408143413</v>
       </c>
       <c r="Q11" t="n">
-        <v>80.64258426171736</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8853,10 +8853,10 @@
         <v>60.64691470913344</v>
       </c>
       <c r="L13" t="n">
-        <v>47.39929435887774</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M13" t="n">
-        <v>46.68471506615327</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N13" t="n">
         <v>37.63776203285606</v>
@@ -8941,13 +8941,13 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>9.069265482343809</v>
+        <v>9.069265482343781</v>
       </c>
       <c r="P14" t="n">
         <v>42.58990408143413</v>
       </c>
       <c r="Q14" t="n">
-        <v>80.64258426171739</v>
+        <v>80.64258426171736</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9090,10 +9090,10 @@
         <v>60.64691470913344</v>
       </c>
       <c r="L16" t="n">
-        <v>47.39929435887775</v>
+        <v>47.39929435887774</v>
       </c>
       <c r="M16" t="n">
-        <v>46.68471506615329</v>
+        <v>46.68471506615327</v>
       </c>
       <c r="N16" t="n">
         <v>37.63776203285606</v>
@@ -23035,7 +23035,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>14.25430980652213</v>
+        <v>14.25430980652214</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23305,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>67.46474657889402</v>
+        <v>67.46474657889404</v>
       </c>
       <c r="S11" t="n">
         <v>179.1266962566148</v>
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>56.57895837355434</v>
+        <v>56.57895837355435</v>
       </c>
       <c r="S12" t="n">
         <v>158.6458343615066</v>
@@ -23542,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>67.46474657889404</v>
+        <v>67.46474657889402</v>
       </c>
       <c r="S14" t="n">
         <v>179.1266962566148</v>
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>56.57895837355435</v>
+        <v>56.57895837355434</v>
       </c>
       <c r="S15" t="n">
         <v>158.6458343615066</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>921779.767757975</v>
+        <v>921779.7677579748</v>
       </c>
     </row>
     <row r="5">
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>512047.7116981491</v>
+        <v>512047.711698149</v>
       </c>
       <c r="C2" t="n">
         <v>512090.8039688033</v>
       </c>
       <c r="D2" t="n">
-        <v>512099.8709766524</v>
+        <v>512099.8709766525</v>
       </c>
       <c r="E2" t="n">
         <v>149717.8262789326</v>
       </c>
       <c r="F2" t="n">
-        <v>149717.8262789326</v>
+        <v>149717.8262789327</v>
       </c>
       <c r="G2" t="n">
-        <v>149717.8262789326</v>
+        <v>149717.8262789327</v>
       </c>
       <c r="H2" t="n">
         <v>149717.8262789327</v>
@@ -26355,7 +26355,7 @@
         <v>149717.8262789327</v>
       </c>
       <c r="P2" t="n">
-        <v>149717.8262789326</v>
+        <v>149717.8262789327</v>
       </c>
     </row>
     <row r="3">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10804.15176641788</v>
+        <v>10760.01598773669</v>
       </c>
       <c r="C6" t="n">
-        <v>-114950.7228285016</v>
+        <v>-114993.1349163565</v>
       </c>
       <c r="D6" t="n">
-        <v>56893.23682941961</v>
+        <v>56851.18742187874</v>
       </c>
       <c r="E6" t="n">
-        <v>62451.83546843423</v>
+        <v>47914.50427298449</v>
       </c>
       <c r="F6" t="n">
-        <v>115092.2744912234</v>
+        <v>100554.9432957737</v>
       </c>
       <c r="G6" t="n">
-        <v>115092.2744912234</v>
+        <v>100554.9432957737</v>
       </c>
       <c r="H6" t="n">
-        <v>115092.2744912234</v>
+        <v>100554.9432957737</v>
       </c>
       <c r="I6" t="n">
-        <v>115092.2744912235</v>
+        <v>100554.9432957737</v>
       </c>
       <c r="J6" t="n">
-        <v>115092.2744912235</v>
+        <v>100554.9432957737</v>
       </c>
       <c r="K6" t="n">
-        <v>115092.2744912234</v>
+        <v>100554.9432957738</v>
       </c>
       <c r="L6" t="n">
-        <v>115092.2744912234</v>
+        <v>100554.9432957737</v>
       </c>
       <c r="M6" t="n">
-        <v>115092.2744912235</v>
+        <v>100554.9432957737</v>
       </c>
       <c r="N6" t="n">
-        <v>115092.2744912235</v>
+        <v>100554.9432957737</v>
       </c>
       <c r="O6" t="n">
-        <v>115092.2744912235</v>
+        <v>100554.9432957737</v>
       </c>
       <c r="P6" t="n">
-        <v>115092.2744912234</v>
+        <v>100554.9432957737</v>
       </c>
     </row>
   </sheetData>
@@ -31758,7 +31758,7 @@
         <v>13.43480020239508</v>
       </c>
       <c r="I11" t="n">
-        <v>50.5744059370523</v>
+        <v>50.57440593705229</v>
       </c>
       <c r="J11" t="n">
         <v>111.3401072796808</v>
@@ -31785,7 +31785,7 @@
         <v>141.6631056127321</v>
       </c>
       <c r="R11" t="n">
-        <v>82.40437136225566</v>
+        <v>82.40437136225565</v>
       </c>
       <c r="S11" t="n">
         <v>29.89337332963048</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.70189203713141</v>
+        <v>0.7018920371314099</v>
       </c>
       <c r="H12" t="n">
         <v>6.778799411242828</v>
@@ -31864,7 +31864,7 @@
         <v>89.59590284505508</v>
       </c>
       <c r="R12" t="n">
-        <v>43.57887577908879</v>
+        <v>43.57887577908878</v>
       </c>
       <c r="S12" t="n">
         <v>13.03733674233122</v>
@@ -31913,7 +31913,7 @@
         <v>0.5884427058493126</v>
       </c>
       <c r="H13" t="n">
-        <v>5.231790602914802</v>
+        <v>5.231790602914801</v>
       </c>
       <c r="I13" t="n">
         <v>17.69607700863206</v>
@@ -31925,10 +31925,10 @@
         <v>68.36634346140194</v>
       </c>
       <c r="L13" t="n">
-        <v>87.48538192236055</v>
+        <v>87.48538192236053</v>
       </c>
       <c r="M13" t="n">
-        <v>92.24106888145178</v>
+        <v>92.24106888145177</v>
       </c>
       <c r="N13" t="n">
         <v>90.04778243237713</v>
@@ -31995,7 +31995,7 @@
         <v>13.43480020239508</v>
       </c>
       <c r="I14" t="n">
-        <v>50.57440593705229</v>
+        <v>50.5744059370523</v>
       </c>
       <c r="J14" t="n">
         <v>111.3401072796808</v>
@@ -32022,7 +32022,7 @@
         <v>141.6631056127321</v>
       </c>
       <c r="R14" t="n">
-        <v>82.40437136225565</v>
+        <v>82.40437136225566</v>
       </c>
       <c r="S14" t="n">
         <v>29.89337332963048</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7018920371314099</v>
+        <v>0.70189203713141</v>
       </c>
       <c r="H15" t="n">
         <v>6.778799411242828</v>
@@ -32101,7 +32101,7 @@
         <v>89.59590284505508</v>
       </c>
       <c r="R15" t="n">
-        <v>43.57887577908878</v>
+        <v>43.57887577908879</v>
       </c>
       <c r="S15" t="n">
         <v>13.03733674233122</v>
@@ -32150,7 +32150,7 @@
         <v>0.5884427058493126</v>
       </c>
       <c r="H16" t="n">
-        <v>5.231790602914801</v>
+        <v>5.231790602914802</v>
       </c>
       <c r="I16" t="n">
         <v>17.69607700863206</v>
@@ -32162,10 +32162,10 @@
         <v>68.36634346140194</v>
       </c>
       <c r="L16" t="n">
-        <v>87.48538192236053</v>
+        <v>87.48538192236055</v>
       </c>
       <c r="M16" t="n">
-        <v>92.24106888145177</v>
+        <v>92.24106888145178</v>
       </c>
       <c r="N16" t="n">
         <v>90.04778243237713</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_24_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_24_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>503429.6771079077</v>
+        <v>577211.0833232823</v>
       </c>
     </row>
     <row r="7">
@@ -8941,13 +8941,13 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>9.069265482343781</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P14" t="n">
         <v>42.58990408143413</v>
       </c>
       <c r="Q14" t="n">
-        <v>80.64258426171736</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9090,10 +9090,10 @@
         <v>60.64691470913344</v>
       </c>
       <c r="L16" t="n">
-        <v>47.39929435887774</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M16" t="n">
-        <v>46.68471506615327</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N16" t="n">
         <v>37.63776203285606</v>
@@ -23035,7 +23035,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>14.25430980652214</v>
+        <v>14.25430980652213</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23542,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>67.46474657889402</v>
+        <v>67.46474657889404</v>
       </c>
       <c r="S14" t="n">
         <v>179.1266962566148</v>
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>56.57895837355434</v>
+        <v>56.57895837355435</v>
       </c>
       <c r="S15" t="n">
         <v>158.6458343615066</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>921779.7677579748</v>
+        <v>921779.767757975</v>
       </c>
     </row>
     <row r="5">
@@ -26316,13 +26316,13 @@
         <v>512047.711698149</v>
       </c>
       <c r="C2" t="n">
-        <v>512090.8039688033</v>
+        <v>512090.8039688034</v>
       </c>
       <c r="D2" t="n">
-        <v>512099.8709766525</v>
+        <v>512099.8709766524</v>
       </c>
       <c r="E2" t="n">
-        <v>149717.8262789326</v>
+        <v>149717.8262789327</v>
       </c>
       <c r="F2" t="n">
         <v>149717.8262789327</v>
@@ -26368,10 +26368,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>196199.5392125275</v>
+        <v>196199.5392125276</v>
       </c>
       <c r="D3" t="n">
-        <v>38825.56230004787</v>
+        <v>38825.56230004775</v>
       </c>
       <c r="E3" t="n">
         <v>52640.43902278915</v>
@@ -26420,7 +26420,7 @@
         <v>467615.9599317312</v>
       </c>
       <c r="C4" t="n">
-        <v>392517.3300834397</v>
+        <v>392517.3300834396</v>
       </c>
       <c r="D4" t="n">
         <v>377068.1104903042</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10760.01598773669</v>
+        <v>10799.73818854971</v>
       </c>
       <c r="C6" t="n">
-        <v>-114993.1349163565</v>
+        <v>-114954.964037287</v>
       </c>
       <c r="D6" t="n">
-        <v>56851.18742187874</v>
+        <v>56889.03188866563</v>
       </c>
       <c r="E6" t="n">
-        <v>47914.50427298449</v>
+        <v>60998.10234888937</v>
       </c>
       <c r="F6" t="n">
-        <v>100554.9432957737</v>
+        <v>113638.5413716785</v>
       </c>
       <c r="G6" t="n">
-        <v>100554.9432957737</v>
+        <v>113638.5413716785</v>
       </c>
       <c r="H6" t="n">
-        <v>100554.9432957737</v>
+        <v>113638.5413716785</v>
       </c>
       <c r="I6" t="n">
-        <v>100554.9432957737</v>
+        <v>113638.5413716785</v>
       </c>
       <c r="J6" t="n">
-        <v>100554.9432957737</v>
+        <v>113638.5413716785</v>
       </c>
       <c r="K6" t="n">
-        <v>100554.9432957738</v>
+        <v>113638.5413716785</v>
       </c>
       <c r="L6" t="n">
-        <v>100554.9432957737</v>
+        <v>113638.5413716785</v>
       </c>
       <c r="M6" t="n">
-        <v>100554.9432957737</v>
+        <v>113638.5413716785</v>
       </c>
       <c r="N6" t="n">
-        <v>100554.9432957737</v>
+        <v>113638.5413716785</v>
       </c>
       <c r="O6" t="n">
-        <v>100554.9432957737</v>
+        <v>113638.5413716785</v>
       </c>
       <c r="P6" t="n">
-        <v>100554.9432957737</v>
+        <v>113638.5413716785</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>215.4613532723709</v>
+        <v>215.461353272371</v>
       </c>
       <c r="D3" t="n">
         <v>260.7963925174648</v>
@@ -26962,10 +26962,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>215.4613532723709</v>
+        <v>215.461353272371</v>
       </c>
       <c r="D3" t="n">
-        <v>45.33503924509392</v>
+        <v>45.33503924509379</v>
       </c>
       <c r="E3" t="n">
         <v>65.52183527169944</v>
@@ -27639,31 +27639,31 @@
         <v>177.082627974293</v>
       </c>
       <c r="J5" t="n">
-        <v>107.5302742460797</v>
+        <v>107.5302742460796</v>
       </c>
       <c r="K5" t="n">
-        <v>109.908978215552</v>
+        <v>109.9089782155519</v>
       </c>
       <c r="L5" t="n">
-        <v>99.07729936584784</v>
+        <v>99.07729936584778</v>
       </c>
       <c r="M5" t="n">
-        <v>78.25325494471113</v>
+        <v>78.25325494471107</v>
       </c>
       <c r="N5" t="n">
-        <v>74.85906191710419</v>
+        <v>74.8590619171041</v>
       </c>
       <c r="O5" t="n">
-        <v>84.15725027125384</v>
+        <v>84.15725027125376</v>
       </c>
       <c r="P5" t="n">
-        <v>106.6757618768433</v>
+        <v>106.6757618768432</v>
       </c>
       <c r="Q5" t="n">
         <v>128.7683945450354</v>
       </c>
       <c r="R5" t="n">
-        <v>161.1755911508334</v>
+        <v>161.1755911508333</v>
       </c>
       <c r="S5" t="n">
         <v>189.282077273907</v>
@@ -27715,31 +27715,31 @@
         <v>107.7595395204044</v>
       </c>
       <c r="I6" t="n">
-        <v>83.56604393218763</v>
+        <v>83.56604393218761</v>
       </c>
       <c r="J6" t="n">
-        <v>83.05222090402384</v>
+        <v>83.05222090402381</v>
       </c>
       <c r="K6" t="n">
-        <v>63.00520648918088</v>
+        <v>63.00520648918084</v>
       </c>
       <c r="L6" t="n">
-        <v>37.9278298388485</v>
+        <v>37.92782983884844</v>
       </c>
       <c r="M6" t="n">
-        <v>24.70759638857619</v>
+        <v>24.70759638857614</v>
       </c>
       <c r="N6" t="n">
-        <v>10.80734616165101</v>
+        <v>10.80734616165095</v>
       </c>
       <c r="O6" t="n">
-        <v>32.3308479258944</v>
+        <v>32.33084792589435</v>
       </c>
       <c r="P6" t="n">
-        <v>45.47670553911811</v>
+        <v>45.47670553911807</v>
       </c>
       <c r="Q6" t="n">
-        <v>80.82340403282262</v>
+        <v>80.82340403282259</v>
       </c>
       <c r="R6" t="n">
         <v>116.9052500307216</v>
@@ -27800,22 +27800,22 @@
         <v>99.52586497383498</v>
       </c>
       <c r="K7" t="n">
-        <v>83.87233858330752</v>
+        <v>83.87233858330751</v>
       </c>
       <c r="L7" t="n">
-        <v>77.11984068424889</v>
+        <v>77.11984068424884</v>
       </c>
       <c r="M7" t="n">
-        <v>78.02086403817079</v>
+        <v>78.02086403817074</v>
       </c>
       <c r="N7" t="n">
-        <v>68.22880742205579</v>
+        <v>68.22880742205575</v>
       </c>
       <c r="O7" t="n">
-        <v>83.53861844071453</v>
+        <v>83.5386184407145</v>
       </c>
       <c r="P7" t="n">
-        <v>90.73623611577678</v>
+        <v>90.73623611577676</v>
       </c>
       <c r="Q7" t="n">
         <v>118.9703372853178</v>
@@ -27876,7 +27876,7 @@
         <v>170.0563803341062</v>
       </c>
       <c r="J8" t="n">
-        <v>92.06191329280011</v>
+        <v>92.06191329280013</v>
       </c>
       <c r="K8" t="n">
         <v>86.72591490550931</v>
@@ -27885,7 +27885,7 @@
         <v>70.31665934305323</v>
       </c>
       <c r="M8" t="n">
-        <v>46.25150133729363</v>
+        <v>46.25150133729366</v>
       </c>
       <c r="N8" t="n">
         <v>42.33948647951536</v>
@@ -27900,7 +27900,7 @@
         <v>109.0872921559756</v>
       </c>
       <c r="R8" t="n">
-        <v>149.7272407629755</v>
+        <v>149.7272407629756</v>
       </c>
       <c r="S8" t="n">
         <v>185.1290231762283</v>
@@ -27955,7 +27955,7 @@
         <v>80.20868489375378</v>
       </c>
       <c r="J9" t="n">
-        <v>73.83937108913167</v>
+        <v>73.83937108913169</v>
       </c>
       <c r="K9" t="n">
         <v>47.25897875440141</v>
@@ -28049,10 +28049,10 @@
         <v>55.71856618250388</v>
       </c>
       <c r="O10" t="n">
-        <v>71.98338581476828</v>
+        <v>71.9833858147683</v>
       </c>
       <c r="P10" t="n">
-        <v>80.84873837615825</v>
+        <v>80.84873837615827</v>
       </c>
       <c r="Q10" t="n">
         <v>112.1247463593087</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8661762945622944</v>
+        <v>0.8661762945622948</v>
       </c>
       <c r="H5" t="n">
-        <v>8.8707279766861</v>
+        <v>8.870727976686105</v>
       </c>
       <c r="I5" t="n">
-        <v>33.39326159611289</v>
+        <v>33.39326159611291</v>
       </c>
       <c r="J5" t="n">
-        <v>73.5156302806066</v>
+        <v>73.51563028060664</v>
       </c>
       <c r="K5" t="n">
         <v>110.1808728294286</v>
       </c>
       <c r="L5" t="n">
-        <v>136.6891156041394</v>
+        <v>136.6891156041395</v>
       </c>
       <c r="M5" t="n">
-        <v>152.0929782825616</v>
+        <v>152.0929782825617</v>
       </c>
       <c r="N5" t="n">
-        <v>154.5540016794867</v>
+        <v>154.5540016794868</v>
       </c>
       <c r="O5" t="n">
-        <v>145.9409611504329</v>
+        <v>145.940961150433</v>
       </c>
       <c r="P5" t="n">
-        <v>124.5572338784262</v>
+        <v>124.5572338784263</v>
       </c>
       <c r="Q5" t="n">
-        <v>93.53729532941404</v>
+        <v>93.53729532941409</v>
       </c>
       <c r="R5" t="n">
-        <v>54.40994666329878</v>
+        <v>54.4099466632988</v>
       </c>
       <c r="S5" t="n">
-        <v>19.7379923123383</v>
+        <v>19.73799231233831</v>
       </c>
       <c r="T5" t="n">
-        <v>3.791686729446446</v>
+        <v>3.791686729446448</v>
       </c>
       <c r="U5" t="n">
-        <v>0.06929410356498354</v>
+        <v>0.06929410356498357</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4634451749632129</v>
+        <v>0.4634451749632131</v>
       </c>
       <c r="H6" t="n">
-        <v>4.475904716092083</v>
+        <v>4.475904716092085</v>
       </c>
       <c r="I6" t="n">
         <v>15.95633606781238</v>
       </c>
       <c r="J6" t="n">
-        <v>43.78540576264285</v>
+        <v>43.78540576264287</v>
       </c>
       <c r="K6" t="n">
-        <v>74.83623248517812</v>
+        <v>74.83623248517816</v>
       </c>
       <c r="L6" t="n">
         <v>100.6265499410257</v>
       </c>
       <c r="M6" t="n">
-        <v>117.4264375334421</v>
+        <v>117.4264375334422</v>
       </c>
       <c r="N6" t="n">
-        <v>120.5343659216823</v>
+        <v>120.5343659216824</v>
       </c>
       <c r="O6" t="n">
-        <v>110.26539651855</v>
+        <v>110.2653965185501</v>
       </c>
       <c r="P6" t="n">
-        <v>88.49770187521213</v>
+        <v>88.49770187521217</v>
       </c>
       <c r="Q6" t="n">
-        <v>59.1583700531989</v>
+        <v>59.15837005319893</v>
       </c>
       <c r="R6" t="n">
-        <v>28.7742539332423</v>
+        <v>28.77425393324231</v>
       </c>
       <c r="S6" t="n">
-        <v>8.608290859514058</v>
+        <v>8.608290859514064</v>
       </c>
       <c r="T6" t="n">
-        <v>1.868009279785932</v>
+        <v>1.868009279785933</v>
       </c>
       <c r="U6" t="n">
-        <v>0.03048981414231665</v>
+        <v>0.03048981414231667</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3885368665567344</v>
+        <v>0.3885368665567346</v>
       </c>
       <c r="H7" t="n">
-        <v>3.454445959022605</v>
+        <v>3.454445959022606</v>
       </c>
       <c r="I7" t="n">
         <v>11.68436322336071</v>
       </c>
       <c r="J7" t="n">
-        <v>27.46955646556112</v>
+        <v>27.46955646556113</v>
       </c>
       <c r="K7" t="n">
-        <v>45.14091958722786</v>
+        <v>45.14091958722788</v>
       </c>
       <c r="L7" t="n">
-        <v>57.76483559698941</v>
+        <v>57.76483559698944</v>
       </c>
       <c r="M7" t="n">
-        <v>60.90491990943427</v>
+        <v>60.90491990943431</v>
       </c>
       <c r="N7" t="n">
-        <v>59.4567370431774</v>
+        <v>59.45673704317743</v>
       </c>
       <c r="O7" t="n">
-        <v>54.91792001112826</v>
+        <v>54.91792001112829</v>
       </c>
       <c r="P7" t="n">
-        <v>46.99176793337084</v>
+        <v>46.99176793337086</v>
       </c>
       <c r="Q7" t="n">
-        <v>32.534664344128</v>
+        <v>32.53466434412802</v>
       </c>
       <c r="R7" t="n">
-        <v>17.47003038172371</v>
+        <v>17.47003038172372</v>
       </c>
       <c r="S7" t="n">
-        <v>6.771137938084178</v>
+        <v>6.771137938084181</v>
       </c>
       <c r="T7" t="n">
         <v>1.660112066196956</v>
       </c>
       <c r="U7" t="n">
-        <v>0.02119291999400372</v>
+        <v>0.02119291999400373</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31524,7 +31524,7 @@
         <v>40.41950923629976</v>
       </c>
       <c r="J8" t="n">
-        <v>88.98399123388617</v>
+        <v>88.98399123388616</v>
       </c>
       <c r="K8" t="n">
         <v>133.3639361394712</v>
@@ -31548,7 +31548,7 @@
         <v>113.2183977184739</v>
       </c>
       <c r="R8" t="n">
-        <v>65.8582970511566</v>
+        <v>65.85829705115658</v>
       </c>
       <c r="S8" t="n">
         <v>23.89104641001701</v>
@@ -31557,7 +31557,7 @@
         <v>4.589492294453073</v>
       </c>
       <c r="U8" t="n">
-        <v>0.08387421668903385</v>
+        <v>0.08387421668903383</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31597,7 +31597,7 @@
         <v>0.560958278245113</v>
       </c>
       <c r="H9" t="n">
-        <v>5.417676003051488</v>
+        <v>5.417676003051487</v>
       </c>
       <c r="I9" t="n">
         <v>19.31369510624622</v>
@@ -31630,7 +31630,7 @@
         <v>34.82862011770975</v>
       </c>
       <c r="S9" t="n">
-        <v>10.41955398407041</v>
+        <v>10.4195539840704</v>
       </c>
       <c r="T9" t="n">
         <v>2.261055516259907</v>
@@ -31682,7 +31682,7 @@
         <v>14.14286010570121</v>
       </c>
       <c r="J10" t="n">
-        <v>33.24940237062826</v>
+        <v>33.24940237062825</v>
       </c>
       <c r="K10" t="n">
         <v>54.63898190775737</v>
@@ -31697,13 +31697,13 @@
         <v>71.96697828272931</v>
       </c>
       <c r="O10" t="n">
-        <v>66.47315263707451</v>
+        <v>66.47315263707449</v>
       </c>
       <c r="P10" t="n">
-        <v>56.87926567298936</v>
+        <v>56.87926567298935</v>
       </c>
       <c r="Q10" t="n">
-        <v>39.38025527013719</v>
+        <v>39.38025527013718</v>
       </c>
       <c r="R10" t="n">
         <v>21.14588454739968</v>
@@ -31995,7 +31995,7 @@
         <v>13.43480020239508</v>
       </c>
       <c r="I14" t="n">
-        <v>50.5744059370523</v>
+        <v>50.57440593705229</v>
       </c>
       <c r="J14" t="n">
         <v>111.3401072796808</v>
@@ -32022,7 +32022,7 @@
         <v>141.6631056127321</v>
       </c>
       <c r="R14" t="n">
-        <v>82.40437136225566</v>
+        <v>82.40437136225565</v>
       </c>
       <c r="S14" t="n">
         <v>29.89337332963048</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.70189203713141</v>
+        <v>0.7018920371314099</v>
       </c>
       <c r="H15" t="n">
         <v>6.778799411242828</v>
@@ -32101,7 +32101,7 @@
         <v>89.59590284505508</v>
       </c>
       <c r="R15" t="n">
-        <v>43.57887577908879</v>
+        <v>43.57887577908878</v>
       </c>
       <c r="S15" t="n">
         <v>13.03733674233122</v>
@@ -32150,7 +32150,7 @@
         <v>0.5884427058493126</v>
       </c>
       <c r="H16" t="n">
-        <v>5.231790602914802</v>
+        <v>5.231790602914801</v>
       </c>
       <c r="I16" t="n">
         <v>17.69607700863206</v>
@@ -32162,10 +32162,10 @@
         <v>68.36634346140194</v>
       </c>
       <c r="L16" t="n">
-        <v>87.48538192236055</v>
+        <v>87.48538192236053</v>
       </c>
       <c r="M16" t="n">
-        <v>92.24106888145178</v>
+        <v>92.24106888145177</v>
       </c>
       <c r="N16" t="n">
         <v>90.04778243237713</v>
